--- a/etl_project/data/population.xlsx
+++ b/etl_project/data/population.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA708D1-2054-A640-8CF8-2AD6D52F3203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42314A-93B1-9442-B8C5-237BBE7C48F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1900" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2021" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5729" uniqueCount="120">
   <si>
     <t/>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Number of Population from Registration by Age Group Region and Province: 2012-2022</t>
+  </si>
+  <si>
+    <t>Samut Prakarn Province</t>
+  </si>
+  <si>
+    <t>Sa kaeo Province</t>
+  </si>
+  <si>
+    <t>Phang-nga Province</t>
+  </si>
+  <si>
+    <t>Phatthalung Province</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2653,8 +2667,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>2</v>
+      <c r="A31" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>2</v>
@@ -2697,8 +2711,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>2</v>
+      <c r="A32" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -2741,8 +2755,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>2</v>
+      <c r="A33" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>2</v>
@@ -2785,8 +2799,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>2</v>
+      <c r="A34" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>2</v>
@@ -2829,8 +2843,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>2</v>
+      <c r="A35" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>2</v>
@@ -2873,8 +2887,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>2</v>
+      <c r="A36" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -2917,8 +2931,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>2</v>
+      <c r="A37" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>2</v>
@@ -2961,8 +2975,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>2</v>
+      <c r="A38" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>2</v>
@@ -3005,8 +3019,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>2</v>
+      <c r="A39" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>2</v>
@@ -3049,8 +3063,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>2</v>
+      <c r="A40" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -3093,8 +3107,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>2</v>
+      <c r="A41" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>2</v>
@@ -3137,8 +3151,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>2</v>
+      <c r="A42" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>2</v>
@@ -3181,8 +3195,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>2</v>
+      <c r="A43" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>2</v>
@@ -3225,8 +3239,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>2</v>
+      <c r="A44" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -3269,8 +3283,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>2</v>
+      <c r="A45" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>2</v>
@@ -3313,8 +3327,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>2</v>
+      <c r="A46" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>2</v>
@@ -3357,8 +3371,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>2</v>
+      <c r="A47" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>2</v>
@@ -3401,8 +3415,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>2</v>
+      <c r="A48" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -3445,8 +3459,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>2</v>
+      <c r="A49" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>2</v>
@@ -3489,8 +3503,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>2</v>
+      <c r="A50" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>2</v>
@@ -3533,8 +3547,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>2</v>
+      <c r="A51" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>2</v>
@@ -3577,8 +3591,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>2</v>
+      <c r="A52" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -3621,8 +3635,8 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>2</v>
+      <c r="A53" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>2</v>
@@ -3665,8 +3679,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>2</v>
+      <c r="A54" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>2</v>
@@ -3707,8 +3721,8 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>2</v>
+      <c r="A55" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>2</v>
@@ -3749,8 +3763,8 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>2</v>
+      <c r="A56" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>2</v>
@@ -3835,9 +3849,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A58" s="13"/>
       <c r="B58" s="14" t="s">
         <v>3</v>
       </c>
@@ -3879,9 +3891,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A59" s="13"/>
       <c r="B59" s="14" t="s">
         <v>3</v>
       </c>
@@ -3923,9 +3933,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A60" s="13"/>
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -3967,9 +3975,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A61" s="13"/>
       <c r="B61" s="14" t="s">
         <v>3</v>
       </c>
@@ -4011,9 +4017,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A62" s="13"/>
       <c r="B62" s="14" t="s">
         <v>3</v>
       </c>
@@ -4055,9 +4059,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A63" s="13"/>
       <c r="B63" s="14" t="s">
         <v>3</v>
       </c>
@@ -4099,9 +4101,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="14" t="s">
         <v>3</v>
       </c>
@@ -4143,9 +4143,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A65" s="13"/>
       <c r="B65" s="14" t="s">
         <v>3</v>
       </c>
@@ -4187,9 +4185,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A66" s="13"/>
       <c r="B66" s="14" t="s">
         <v>3</v>
       </c>
@@ -4231,9 +4227,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="14" t="s">
         <v>3</v>
       </c>
@@ -4275,9 +4269,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A68" s="13"/>
       <c r="B68" s="14" t="s">
         <v>3</v>
       </c>
@@ -4319,9 +4311,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A69" s="13"/>
       <c r="B69" s="14" t="s">
         <v>3</v>
       </c>
@@ -4363,9 +4353,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A70" s="13"/>
       <c r="B70" s="14" t="s">
         <v>3</v>
       </c>
@@ -4407,9 +4395,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A71" s="13"/>
       <c r="B71" s="14" t="s">
         <v>3</v>
       </c>
@@ -4451,9 +4437,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A72" s="13"/>
       <c r="B72" s="14" t="s">
         <v>3</v>
       </c>
@@ -4495,9 +4479,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A73" s="13"/>
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>
@@ -4539,9 +4521,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -4583,9 +4563,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A75" s="13"/>
       <c r="B75" s="14" t="s">
         <v>3</v>
       </c>
@@ -4627,9 +4605,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A76" s="13"/>
       <c r="B76" s="14" t="s">
         <v>3</v>
       </c>
@@ -4671,9 +4647,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A77" s="13"/>
       <c r="B77" s="14" t="s">
         <v>3</v>
       </c>
@@ -4715,9 +4689,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="14" t="s">
         <v>3</v>
       </c>
@@ -4759,9 +4731,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="14" t="s">
         <v>3</v>
       </c>
@@ -4803,9 +4773,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A80" s="13"/>
       <c r="B80" s="14" t="s">
         <v>3</v>
       </c>
@@ -4845,9 +4813,7 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A81" s="13"/>
       <c r="B81" s="14" t="s">
         <v>3</v>
       </c>
@@ -4887,9 +4853,7 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A82" s="13"/>
       <c r="B82" s="14" t="s">
         <v>3</v>
       </c>
@@ -4929,11 +4893,9 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A83" s="13"/>
       <c r="B83" s="14" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>8</v>
@@ -4973,9 +4935,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A84" s="13"/>
       <c r="B84" s="14" t="s">
         <v>13</v>
       </c>
@@ -5017,9 +4977,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
         <v>13</v>
       </c>
@@ -5061,9 +5019,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
         <v>13</v>
       </c>
@@ -5105,9 +5061,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A87" s="13"/>
       <c r="B87" s="14" t="s">
         <v>13</v>
       </c>
@@ -5149,9 +5103,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="14" t="s">
         <v>13</v>
       </c>
@@ -5193,9 +5145,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="14" t="s">
         <v>13</v>
       </c>
@@ -5237,9 +5187,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="14" t="s">
         <v>13</v>
       </c>
@@ -5281,9 +5229,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="14" t="s">
         <v>13</v>
       </c>
@@ -5325,9 +5271,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="14" t="s">
         <v>13</v>
       </c>
@@ -5369,9 +5313,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="14" t="s">
         <v>13</v>
       </c>
@@ -5413,9 +5355,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="14" t="s">
         <v>13</v>
       </c>
@@ -5457,9 +5397,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="14" t="s">
         <v>13</v>
       </c>
@@ -5501,9 +5439,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="14" t="s">
         <v>13</v>
       </c>
@@ -5545,9 +5481,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="14" t="s">
         <v>13</v>
       </c>
@@ -5589,9 +5523,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="14" t="s">
         <v>13</v>
       </c>
@@ -5633,9 +5565,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="14" t="s">
         <v>13</v>
       </c>
@@ -5677,9 +5607,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="14" t="s">
         <v>13</v>
       </c>
@@ -5721,9 +5649,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="14" t="s">
         <v>13</v>
       </c>
@@ -5765,9 +5691,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A102" s="13"/>
       <c r="B102" s="14" t="s">
         <v>13</v>
       </c>
@@ -5809,9 +5733,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A103" s="13"/>
       <c r="B103" s="14" t="s">
         <v>13</v>
       </c>
@@ -5853,9 +5775,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A104" s="13"/>
       <c r="B104" s="14" t="s">
         <v>13</v>
       </c>
@@ -5897,9 +5817,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A105" s="13"/>
       <c r="B105" s="14" t="s">
         <v>13</v>
       </c>
@@ -5941,9 +5859,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A106" s="13"/>
       <c r="B106" s="14" t="s">
         <v>13</v>
       </c>
@@ -5983,9 +5899,7 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A107" s="13"/>
       <c r="B107" s="14" t="s">
         <v>13</v>
       </c>
@@ -6025,9 +5939,7 @@
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A108" s="13"/>
       <c r="B108" s="14" t="s">
         <v>13</v>
       </c>
@@ -6067,9 +5979,7 @@
       <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A109" s="13"/>
       <c r="B109" s="14" t="s">
         <v>14</v>
       </c>
@@ -6111,9 +6021,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A110" s="13"/>
       <c r="B110" s="14" t="s">
         <v>14</v>
       </c>
@@ -6155,9 +6063,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A111" s="13"/>
       <c r="B111" s="14" t="s">
         <v>14</v>
       </c>
@@ -6199,9 +6105,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A112" s="13"/>
       <c r="B112" s="14" t="s">
         <v>14</v>
       </c>
@@ -6243,9 +6147,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A113" s="13"/>
       <c r="B113" s="14" t="s">
         <v>14</v>
       </c>
@@ -6287,9 +6189,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A114" s="13"/>
       <c r="B114" s="14" t="s">
         <v>14</v>
       </c>
@@ -6331,9 +6231,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A115" s="13"/>
       <c r="B115" s="14" t="s">
         <v>14</v>
       </c>
@@ -6375,9 +6273,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A116" s="13"/>
       <c r="B116" s="14" t="s">
         <v>14</v>
       </c>
@@ -6419,9 +6315,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A117" s="13"/>
       <c r="B117" s="14" t="s">
         <v>14</v>
       </c>
@@ -6463,9 +6357,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A118" s="13"/>
       <c r="B118" s="14" t="s">
         <v>14</v>
       </c>
@@ -6507,9 +6399,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A119" s="13"/>
       <c r="B119" s="14" t="s">
         <v>14</v>
       </c>
@@ -6551,9 +6441,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A120" s="13"/>
       <c r="B120" s="14" t="s">
         <v>14</v>
       </c>
@@ -6595,9 +6483,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A121" s="13"/>
       <c r="B121" s="14" t="s">
         <v>14</v>
       </c>
@@ -6639,9 +6525,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A122" s="13"/>
       <c r="B122" s="14" t="s">
         <v>14</v>
       </c>
@@ -6683,9 +6567,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A123" s="13"/>
       <c r="B123" s="14" t="s">
         <v>14</v>
       </c>
@@ -6727,9 +6609,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A124" s="13"/>
       <c r="B124" s="14" t="s">
         <v>14</v>
       </c>
@@ -6771,9 +6651,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A125" s="13"/>
       <c r="B125" s="14" t="s">
         <v>14</v>
       </c>
@@ -6815,9 +6693,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A126" s="13"/>
       <c r="B126" s="14" t="s">
         <v>14</v>
       </c>
@@ -6859,9 +6735,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A127" s="13"/>
       <c r="B127" s="14" t="s">
         <v>14</v>
       </c>
@@ -6903,9 +6777,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A128" s="13"/>
       <c r="B128" s="14" t="s">
         <v>14</v>
       </c>
@@ -6947,9 +6819,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A129" s="13"/>
       <c r="B129" s="14" t="s">
         <v>14</v>
       </c>
@@ -6991,9 +6861,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A130" s="13"/>
       <c r="B130" s="14" t="s">
         <v>14</v>
       </c>
@@ -7035,9 +6903,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A131" s="13"/>
       <c r="B131" s="14" t="s">
         <v>14</v>
       </c>
@@ -7079,9 +6945,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A132" s="13"/>
       <c r="B132" s="14" t="s">
         <v>14</v>
       </c>
@@ -7121,9 +6985,7 @@
       <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A133" s="13"/>
       <c r="B133" s="14" t="s">
         <v>14</v>
       </c>
@@ -7163,9 +7025,7 @@
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A134" s="13"/>
       <c r="B134" s="14" t="s">
         <v>14</v>
       </c>
@@ -7205,9 +7065,7 @@
       <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A135" s="13"/>
       <c r="B135" s="14" t="s">
         <v>15</v>
       </c>
@@ -7249,9 +7107,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A136" s="13"/>
       <c r="B136" s="14" t="s">
         <v>15</v>
       </c>
@@ -7293,9 +7149,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A137" s="13"/>
       <c r="B137" s="14" t="s">
         <v>15</v>
       </c>
@@ -7337,9 +7191,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A138" s="13"/>
       <c r="B138" s="14" t="s">
         <v>15</v>
       </c>
@@ -7381,9 +7233,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A139" s="13"/>
       <c r="B139" s="14" t="s">
         <v>15</v>
       </c>
@@ -7425,9 +7275,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A140" s="13"/>
       <c r="B140" s="14" t="s">
         <v>15</v>
       </c>
@@ -7469,9 +7317,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A141" s="13"/>
       <c r="B141" s="14" t="s">
         <v>15</v>
       </c>
@@ -7513,9 +7359,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A142" s="13"/>
       <c r="B142" s="14" t="s">
         <v>15</v>
       </c>
@@ -7557,9 +7401,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A143" s="13"/>
       <c r="B143" s="14" t="s">
         <v>15</v>
       </c>
@@ -7601,9 +7443,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A144" s="13"/>
       <c r="B144" s="14" t="s">
         <v>15</v>
       </c>
@@ -7645,9 +7485,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A145" s="13"/>
       <c r="B145" s="14" t="s">
         <v>15</v>
       </c>
@@ -7689,9 +7527,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A146" s="13"/>
       <c r="B146" s="14" t="s">
         <v>15</v>
       </c>
@@ -7733,9 +7569,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A147" s="13"/>
       <c r="B147" s="14" t="s">
         <v>15</v>
       </c>
@@ -7777,9 +7611,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A148" s="13"/>
       <c r="B148" s="14" t="s">
         <v>15</v>
       </c>
@@ -7821,9 +7653,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A149" s="13"/>
       <c r="B149" s="14" t="s">
         <v>15</v>
       </c>
@@ -7865,9 +7695,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A150" s="13"/>
       <c r="B150" s="14" t="s">
         <v>15</v>
       </c>
@@ -7909,9 +7737,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A151" s="13"/>
       <c r="B151" s="14" t="s">
         <v>15</v>
       </c>
@@ -7953,9 +7779,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A152" s="13"/>
       <c r="B152" s="14" t="s">
         <v>15</v>
       </c>
@@ -7997,9 +7821,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A153" s="13"/>
       <c r="B153" s="14" t="s">
         <v>15</v>
       </c>
@@ -8041,9 +7863,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A154" s="13"/>
       <c r="B154" s="14" t="s">
         <v>15</v>
       </c>
@@ -8085,9 +7905,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A155" s="13"/>
       <c r="B155" s="14" t="s">
         <v>15</v>
       </c>
@@ -8129,9 +7947,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A156" s="13"/>
       <c r="B156" s="14" t="s">
         <v>15</v>
       </c>
@@ -8173,9 +7989,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A157" s="13"/>
       <c r="B157" s="14" t="s">
         <v>15</v>
       </c>
@@ -8217,9 +8031,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A158" s="13"/>
       <c r="B158" s="14" t="s">
         <v>15</v>
       </c>
@@ -8259,9 +8071,7 @@
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A159" s="13"/>
       <c r="B159" s="14" t="s">
         <v>15</v>
       </c>
@@ -8301,9 +8111,7 @@
       <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A160" s="13"/>
       <c r="B160" s="14" t="s">
         <v>15</v>
       </c>
@@ -8343,9 +8151,7 @@
       <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A161" s="13"/>
       <c r="B161" s="14" t="s">
         <v>16</v>
       </c>
@@ -8387,9 +8193,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A162" s="13"/>
       <c r="B162" s="14" t="s">
         <v>16</v>
       </c>
@@ -8431,9 +8235,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A163" s="13"/>
       <c r="B163" s="14" t="s">
         <v>16</v>
       </c>
@@ -8475,9 +8277,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A164" s="13"/>
       <c r="B164" s="14" t="s">
         <v>16</v>
       </c>
@@ -8519,9 +8319,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A165" s="13"/>
       <c r="B165" s="14" t="s">
         <v>16</v>
       </c>
@@ -8563,9 +8361,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A166" s="13"/>
       <c r="B166" s="14" t="s">
         <v>16</v>
       </c>
@@ -8607,9 +8403,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A167" s="13"/>
       <c r="B167" s="14" t="s">
         <v>16</v>
       </c>
@@ -8651,9 +8445,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A168" s="13"/>
       <c r="B168" s="14" t="s">
         <v>16</v>
       </c>
@@ -8695,9 +8487,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A169" s="13"/>
       <c r="B169" s="14" t="s">
         <v>16</v>
       </c>
@@ -8739,9 +8529,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A170" s="13"/>
       <c r="B170" s="14" t="s">
         <v>16</v>
       </c>
@@ -8783,9 +8571,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A171" s="13"/>
       <c r="B171" s="14" t="s">
         <v>16</v>
       </c>
@@ -8827,9 +8613,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A172" s="13"/>
       <c r="B172" s="14" t="s">
         <v>16</v>
       </c>
@@ -8871,9 +8655,7 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A173" s="13"/>
       <c r="B173" s="14" t="s">
         <v>16</v>
       </c>
@@ -8915,9 +8697,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A174" s="13"/>
       <c r="B174" s="14" t="s">
         <v>16</v>
       </c>
@@ -8959,9 +8739,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A175" s="13"/>
       <c r="B175" s="14" t="s">
         <v>16</v>
       </c>
@@ -9003,9 +8781,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A176" s="13"/>
       <c r="B176" s="14" t="s">
         <v>16</v>
       </c>
@@ -9047,9 +8823,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A177" s="13"/>
       <c r="B177" s="14" t="s">
         <v>16</v>
       </c>
@@ -9091,9 +8865,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A178" s="13"/>
       <c r="B178" s="14" t="s">
         <v>16</v>
       </c>
@@ -9135,9 +8907,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A179" s="13"/>
       <c r="B179" s="14" t="s">
         <v>16</v>
       </c>
@@ -9179,9 +8949,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A180" s="13"/>
       <c r="B180" s="14" t="s">
         <v>16</v>
       </c>
@@ -9223,9 +8991,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A181" s="13"/>
       <c r="B181" s="14" t="s">
         <v>16</v>
       </c>
@@ -9267,9 +9033,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A182" s="13"/>
       <c r="B182" s="14" t="s">
         <v>16</v>
       </c>
@@ -9311,9 +9075,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A183" s="13"/>
       <c r="B183" s="14" t="s">
         <v>16</v>
       </c>
@@ -9355,9 +9117,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A184" s="13"/>
       <c r="B184" s="14" t="s">
         <v>16</v>
       </c>
@@ -9397,9 +9157,7 @@
       <c r="N184" s="3"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A185" s="13"/>
       <c r="B185" s="14" t="s">
         <v>16</v>
       </c>
@@ -9439,9 +9197,7 @@
       <c r="N185" s="3"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A186" s="13"/>
       <c r="B186" s="14" t="s">
         <v>16</v>
       </c>
@@ -9481,9 +9237,7 @@
       <c r="N186" s="3"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A187" s="13"/>
       <c r="B187" s="14" t="s">
         <v>17</v>
       </c>
@@ -9525,9 +9279,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A188" s="13"/>
       <c r="B188" s="14" t="s">
         <v>17</v>
       </c>
@@ -9569,9 +9321,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A189" s="13"/>
       <c r="B189" s="14" t="s">
         <v>17</v>
       </c>
@@ -9613,9 +9363,7 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A190" s="13"/>
       <c r="B190" s="14" t="s">
         <v>17</v>
       </c>
@@ -9657,9 +9405,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A191" s="13"/>
       <c r="B191" s="14" t="s">
         <v>17</v>
       </c>
@@ -9701,9 +9447,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A192" s="13"/>
       <c r="B192" s="14" t="s">
         <v>17</v>
       </c>
@@ -9745,9 +9489,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A193" s="13"/>
       <c r="B193" s="14" t="s">
         <v>17</v>
       </c>
@@ -9789,9 +9531,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A194" s="13"/>
       <c r="B194" s="14" t="s">
         <v>17</v>
       </c>
@@ -9833,9 +9573,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A195" s="13"/>
       <c r="B195" s="14" t="s">
         <v>17</v>
       </c>
@@ -9877,9 +9615,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A196" s="13"/>
       <c r="B196" s="14" t="s">
         <v>17</v>
       </c>
@@ -9921,9 +9657,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A197" s="13"/>
       <c r="B197" s="14" t="s">
         <v>17</v>
       </c>
@@ -9965,9 +9699,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A198" s="13"/>
       <c r="B198" s="14" t="s">
         <v>17</v>
       </c>
@@ -10009,9 +9741,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A199" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A199" s="13"/>
       <c r="B199" s="14" t="s">
         <v>17</v>
       </c>
@@ -10053,9 +9783,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A200" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A200" s="13"/>
       <c r="B200" s="14" t="s">
         <v>17</v>
       </c>
@@ -10097,9 +9825,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A201" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A201" s="13"/>
       <c r="B201" s="14" t="s">
         <v>17</v>
       </c>
@@ -10141,9 +9867,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A202" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A202" s="13"/>
       <c r="B202" s="14" t="s">
         <v>17</v>
       </c>
@@ -10185,9 +9909,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A203" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A203" s="13"/>
       <c r="B203" s="14" t="s">
         <v>17</v>
       </c>
@@ -10229,9 +9951,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A204" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A204" s="13"/>
       <c r="B204" s="14" t="s">
         <v>17</v>
       </c>
@@ -10273,9 +9993,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A205" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A205" s="13"/>
       <c r="B205" s="14" t="s">
         <v>17</v>
       </c>
@@ -10317,9 +10035,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A206" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A206" s="13"/>
       <c r="B206" s="14" t="s">
         <v>17</v>
       </c>
@@ -10361,9 +10077,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A207" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A207" s="13"/>
       <c r="B207" s="14" t="s">
         <v>17</v>
       </c>
@@ -10405,9 +10119,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A208" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A208" s="13"/>
       <c r="B208" s="14" t="s">
         <v>17</v>
       </c>
@@ -10449,9 +10161,7 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A209" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A209" s="13"/>
       <c r="B209" s="14" t="s">
         <v>17</v>
       </c>
@@ -10493,9 +10203,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A210" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A210" s="13"/>
       <c r="B210" s="14" t="s">
         <v>17</v>
       </c>
@@ -10535,9 +10243,7 @@
       <c r="N210" s="3"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A211" s="13"/>
       <c r="B211" s="14" t="s">
         <v>17</v>
       </c>
@@ -10577,9 +10283,7 @@
       <c r="N211" s="3"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A212" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A212" s="13"/>
       <c r="B212" s="14" t="s">
         <v>17</v>
       </c>
@@ -10619,9 +10323,7 @@
       <c r="N212" s="3"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A213" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A213" s="13"/>
       <c r="B213" s="14" t="s">
         <v>18</v>
       </c>
@@ -10663,9 +10365,7 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A214" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A214" s="13"/>
       <c r="B214" s="14" t="s">
         <v>18</v>
       </c>
@@ -10707,9 +10407,7 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A215" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A215" s="13"/>
       <c r="B215" s="14" t="s">
         <v>18</v>
       </c>
@@ -10751,9 +10449,7 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A216" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A216" s="13"/>
       <c r="B216" s="14" t="s">
         <v>18</v>
       </c>
@@ -10795,9 +10491,7 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A217" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A217" s="13"/>
       <c r="B217" s="14" t="s">
         <v>18</v>
       </c>
@@ -10839,9 +10533,7 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A218" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A218" s="13"/>
       <c r="B218" s="14" t="s">
         <v>18</v>
       </c>
@@ -10883,9 +10575,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A219" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A219" s="13"/>
       <c r="B219" s="14" t="s">
         <v>18</v>
       </c>
@@ -10927,9 +10617,7 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A220" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A220" s="13"/>
       <c r="B220" s="14" t="s">
         <v>18</v>
       </c>
@@ -10971,9 +10659,7 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A221" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A221" s="13"/>
       <c r="B221" s="14" t="s">
         <v>18</v>
       </c>
@@ -11015,9 +10701,7 @@
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A222" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A222" s="13"/>
       <c r="B222" s="14" t="s">
         <v>18</v>
       </c>
@@ -11059,9 +10743,7 @@
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A223" s="13"/>
       <c r="B223" s="14" t="s">
         <v>18</v>
       </c>
@@ -11103,9 +10785,7 @@
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A224" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A224" s="13"/>
       <c r="B224" s="14" t="s">
         <v>18</v>
       </c>
@@ -11147,9 +10827,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A225" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A225" s="13"/>
       <c r="B225" s="14" t="s">
         <v>18</v>
       </c>
@@ -11191,9 +10869,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A226" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A226" s="13"/>
       <c r="B226" s="14" t="s">
         <v>18</v>
       </c>
@@ -11235,9 +10911,7 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A227" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A227" s="13"/>
       <c r="B227" s="14" t="s">
         <v>18</v>
       </c>
@@ -11279,9 +10953,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A228" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A228" s="13"/>
       <c r="B228" s="14" t="s">
         <v>18</v>
       </c>
@@ -11323,9 +10995,7 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A229" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A229" s="13"/>
       <c r="B229" s="14" t="s">
         <v>18</v>
       </c>
@@ -11367,9 +11037,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A230" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A230" s="13"/>
       <c r="B230" s="14" t="s">
         <v>18</v>
       </c>
@@ -11411,9 +11079,7 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A231" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A231" s="13"/>
       <c r="B231" s="14" t="s">
         <v>18</v>
       </c>
@@ -11455,9 +11121,7 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A232" s="13"/>
       <c r="B232" s="14" t="s">
         <v>18</v>
       </c>
@@ -11499,9 +11163,7 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A233" s="13"/>
       <c r="B233" s="14" t="s">
         <v>18</v>
       </c>
@@ -11543,9 +11205,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A234" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A234" s="13"/>
       <c r="B234" s="14" t="s">
         <v>18</v>
       </c>
@@ -11587,9 +11247,7 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A235" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A235" s="13"/>
       <c r="B235" s="14" t="s">
         <v>18</v>
       </c>
@@ -11631,9 +11289,7 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A236" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A236" s="13"/>
       <c r="B236" s="14" t="s">
         <v>18</v>
       </c>
@@ -11673,9 +11329,7 @@
       <c r="N236" s="3"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A237" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A237" s="13"/>
       <c r="B237" s="14" t="s">
         <v>18</v>
       </c>
@@ -11715,9 +11369,7 @@
       <c r="N237" s="3"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A238" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A238" s="13"/>
       <c r="B238" s="14" t="s">
         <v>18</v>
       </c>
@@ -11757,9 +11409,7 @@
       <c r="N238" s="3"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A239" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A239" s="13"/>
       <c r="B239" s="14" t="s">
         <v>19</v>
       </c>
@@ -11801,9 +11451,7 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A240" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A240" s="13"/>
       <c r="B240" s="14" t="s">
         <v>19</v>
       </c>
@@ -11845,9 +11493,7 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A241" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A241" s="13"/>
       <c r="B241" s="14" t="s">
         <v>19</v>
       </c>
@@ -11889,9 +11535,7 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A242" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A242" s="13"/>
       <c r="B242" s="14" t="s">
         <v>19</v>
       </c>
@@ -11933,9 +11577,7 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A243" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A243" s="13"/>
       <c r="B243" s="14" t="s">
         <v>19</v>
       </c>
@@ -11977,9 +11619,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A244" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A244" s="13"/>
       <c r="B244" s="14" t="s">
         <v>19</v>
       </c>
@@ -12021,9 +11661,7 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A245" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A245" s="13"/>
       <c r="B245" s="14" t="s">
         <v>19</v>
       </c>
@@ -12065,9 +11703,7 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A246" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A246" s="13"/>
       <c r="B246" s="14" t="s">
         <v>19</v>
       </c>
@@ -12109,9 +11745,7 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A247" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A247" s="13"/>
       <c r="B247" s="14" t="s">
         <v>19</v>
       </c>
@@ -12153,9 +11787,7 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A248" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A248" s="13"/>
       <c r="B248" s="14" t="s">
         <v>19</v>
       </c>
@@ -12197,9 +11829,7 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A249" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A249" s="13"/>
       <c r="B249" s="14" t="s">
         <v>19</v>
       </c>
@@ -12241,9 +11871,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A250" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A250" s="13"/>
       <c r="B250" s="14" t="s">
         <v>19</v>
       </c>
@@ -12285,9 +11913,7 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A251" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A251" s="13"/>
       <c r="B251" s="14" t="s">
         <v>19</v>
       </c>
@@ -12329,9 +11955,7 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A252" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A252" s="13"/>
       <c r="B252" s="14" t="s">
         <v>19</v>
       </c>
@@ -12373,9 +11997,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A253" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A253" s="13"/>
       <c r="B253" s="14" t="s">
         <v>19</v>
       </c>
@@ -12417,9 +12039,7 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A254" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A254" s="13"/>
       <c r="B254" s="14" t="s">
         <v>19</v>
       </c>
@@ -12461,9 +12081,7 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A255" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A255" s="13"/>
       <c r="B255" s="14" t="s">
         <v>19</v>
       </c>
@@ -12505,9 +12123,7 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A256" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A256" s="13"/>
       <c r="B256" s="14" t="s">
         <v>19</v>
       </c>
@@ -12549,9 +12165,7 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A257" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A257" s="13"/>
       <c r="B257" s="14" t="s">
         <v>19</v>
       </c>
@@ -12593,9 +12207,7 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A258" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A258" s="13"/>
       <c r="B258" s="14" t="s">
         <v>19</v>
       </c>
@@ -12637,9 +12249,7 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A259" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A259" s="13"/>
       <c r="B259" s="14" t="s">
         <v>19</v>
       </c>
@@ -12681,9 +12291,7 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A260" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A260" s="13"/>
       <c r="B260" s="14" t="s">
         <v>19</v>
       </c>
@@ -12725,9 +12333,7 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A261" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A261" s="13"/>
       <c r="B261" s="14" t="s">
         <v>19</v>
       </c>
@@ -12769,9 +12375,7 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A262" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A262" s="13"/>
       <c r="B262" s="14" t="s">
         <v>19</v>
       </c>
@@ -12811,9 +12415,7 @@
       <c r="N262" s="3"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A263" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A263" s="13"/>
       <c r="B263" s="14" t="s">
         <v>19</v>
       </c>
@@ -12853,9 +12455,7 @@
       <c r="N263" s="3"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A264" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A264" s="13"/>
       <c r="B264" s="14" t="s">
         <v>19</v>
       </c>
@@ -12895,9 +12495,7 @@
       <c r="N264" s="3"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A265" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A265" s="13"/>
       <c r="B265" s="14" t="s">
         <v>20</v>
       </c>
@@ -12939,9 +12537,7 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A266" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A266" s="13"/>
       <c r="B266" s="14" t="s">
         <v>20</v>
       </c>
@@ -12983,9 +12579,7 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A267" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A267" s="13"/>
       <c r="B267" s="14" t="s">
         <v>20</v>
       </c>
@@ -13027,9 +12621,7 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A268" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A268" s="13"/>
       <c r="B268" s="14" t="s">
         <v>20</v>
       </c>
@@ -13071,9 +12663,7 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A269" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A269" s="13"/>
       <c r="B269" s="14" t="s">
         <v>20</v>
       </c>
@@ -13115,9 +12705,7 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A270" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A270" s="13"/>
       <c r="B270" s="14" t="s">
         <v>20</v>
       </c>
@@ -13159,9 +12747,7 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A271" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A271" s="13"/>
       <c r="B271" s="14" t="s">
         <v>20</v>
       </c>
@@ -13203,9 +12789,7 @@
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A272" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A272" s="13"/>
       <c r="B272" s="14" t="s">
         <v>20</v>
       </c>
@@ -13247,9 +12831,7 @@
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A273" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A273" s="13"/>
       <c r="B273" s="14" t="s">
         <v>20</v>
       </c>
@@ -13291,9 +12873,7 @@
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A274" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A274" s="13"/>
       <c r="B274" s="14" t="s">
         <v>20</v>
       </c>
@@ -13335,9 +12915,7 @@
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A275" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A275" s="13"/>
       <c r="B275" s="14" t="s">
         <v>20</v>
       </c>
@@ -13379,9 +12957,7 @@
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A276" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A276" s="13"/>
       <c r="B276" s="14" t="s">
         <v>20</v>
       </c>
@@ -13423,9 +12999,7 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A277" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A277" s="13"/>
       <c r="B277" s="14" t="s">
         <v>20</v>
       </c>
@@ -13467,9 +13041,7 @@
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A278" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A278" s="13"/>
       <c r="B278" s="14" t="s">
         <v>20</v>
       </c>
@@ -13511,9 +13083,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A279" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A279" s="13"/>
       <c r="B279" s="14" t="s">
         <v>20</v>
       </c>
@@ -13555,9 +13125,7 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A280" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A280" s="13"/>
       <c r="B280" s="14" t="s">
         <v>20</v>
       </c>
@@ -13599,9 +13167,7 @@
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A281" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A281" s="13"/>
       <c r="B281" s="14" t="s">
         <v>20</v>
       </c>
@@ -13643,9 +13209,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A282" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A282" s="13"/>
       <c r="B282" s="14" t="s">
         <v>20</v>
       </c>
@@ -13687,9 +13251,7 @@
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A283" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A283" s="13"/>
       <c r="B283" s="14" t="s">
         <v>20</v>
       </c>
@@ -13731,9 +13293,7 @@
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A284" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A284" s="13"/>
       <c r="B284" s="14" t="s">
         <v>20</v>
       </c>
@@ -13775,9 +13335,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A285" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A285" s="13"/>
       <c r="B285" s="14" t="s">
         <v>20</v>
       </c>
@@ -13819,9 +13377,7 @@
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A286" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A286" s="13"/>
       <c r="B286" s="14" t="s">
         <v>20</v>
       </c>
@@ -13863,9 +13419,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A287" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A287" s="13"/>
       <c r="B287" s="14" t="s">
         <v>20</v>
       </c>
@@ -13907,9 +13461,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A288" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A288" s="13"/>
       <c r="B288" s="14" t="s">
         <v>20</v>
       </c>
@@ -13949,9 +13501,7 @@
       <c r="N288" s="3"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A289" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A289" s="13"/>
       <c r="B289" s="14" t="s">
         <v>20</v>
       </c>
@@ -13991,9 +13541,7 @@
       <c r="N289" s="3"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A290" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A290" s="13"/>
       <c r="B290" s="14" t="s">
         <v>20</v>
       </c>
@@ -14033,9 +13581,7 @@
       <c r="N290" s="3"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A291" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A291" s="13"/>
       <c r="B291" s="14" t="s">
         <v>21</v>
       </c>
@@ -14077,9 +13623,7 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A292" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A292" s="13"/>
       <c r="B292" s="14" t="s">
         <v>21</v>
       </c>
@@ -14121,9 +13665,7 @@
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A293" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A293" s="13"/>
       <c r="B293" s="14" t="s">
         <v>21</v>
       </c>
@@ -14165,9 +13707,7 @@
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A294" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A294" s="13"/>
       <c r="B294" s="14" t="s">
         <v>21</v>
       </c>
@@ -14209,9 +13749,7 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A295" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A295" s="13"/>
       <c r="B295" s="14" t="s">
         <v>21</v>
       </c>
@@ -14253,9 +13791,7 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A296" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A296" s="13"/>
       <c r="B296" s="14" t="s">
         <v>21</v>
       </c>
@@ -14297,9 +13833,7 @@
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A297" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A297" s="13"/>
       <c r="B297" s="14" t="s">
         <v>21</v>
       </c>
@@ -14341,9 +13875,7 @@
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A298" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A298" s="13"/>
       <c r="B298" s="14" t="s">
         <v>21</v>
       </c>
@@ -14385,9 +13917,7 @@
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A299" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A299" s="13"/>
       <c r="B299" s="14" t="s">
         <v>21</v>
       </c>
@@ -14429,9 +13959,7 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A300" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A300" s="13"/>
       <c r="B300" s="14" t="s">
         <v>21</v>
       </c>
@@ -14473,9 +14001,7 @@
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A301" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A301" s="13"/>
       <c r="B301" s="14" t="s">
         <v>21</v>
       </c>
@@ -14517,9 +14043,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A302" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A302" s="13"/>
       <c r="B302" s="14" t="s">
         <v>21</v>
       </c>
@@ -14561,9 +14085,7 @@
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A303" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A303" s="13"/>
       <c r="B303" s="14" t="s">
         <v>21</v>
       </c>
@@ -14605,9 +14127,7 @@
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A304" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A304" s="13"/>
       <c r="B304" s="14" t="s">
         <v>21</v>
       </c>
@@ -14649,9 +14169,7 @@
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A305" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A305" s="13"/>
       <c r="B305" s="14" t="s">
         <v>21</v>
       </c>
@@ -14693,9 +14211,7 @@
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A306" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A306" s="13"/>
       <c r="B306" s="14" t="s">
         <v>21</v>
       </c>
@@ -14737,9 +14253,7 @@
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A307" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A307" s="13"/>
       <c r="B307" s="14" t="s">
         <v>21</v>
       </c>
@@ -14781,9 +14295,7 @@
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A308" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A308" s="13"/>
       <c r="B308" s="14" t="s">
         <v>21</v>
       </c>
@@ -14825,9 +14337,7 @@
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A309" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A309" s="13"/>
       <c r="B309" s="14" t="s">
         <v>21</v>
       </c>
@@ -14869,9 +14379,7 @@
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A310" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A310" s="13"/>
       <c r="B310" s="14" t="s">
         <v>21</v>
       </c>
@@ -14913,9 +14421,7 @@
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A311" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A311" s="13"/>
       <c r="B311" s="14" t="s">
         <v>21</v>
       </c>
@@ -14957,9 +14463,7 @@
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A312" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A312" s="13"/>
       <c r="B312" s="14" t="s">
         <v>21</v>
       </c>
@@ -15001,9 +14505,7 @@
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A313" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A313" s="13"/>
       <c r="B313" s="14" t="s">
         <v>21</v>
       </c>
@@ -15045,9 +14547,7 @@
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A314" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A314" s="13"/>
       <c r="B314" s="14" t="s">
         <v>21</v>
       </c>
@@ -15087,9 +14587,7 @@
       <c r="N314" s="3"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A315" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A315" s="13"/>
       <c r="B315" s="14" t="s">
         <v>21</v>
       </c>
@@ -15129,9 +14627,7 @@
       <c r="N315" s="3"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A316" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A316" s="13"/>
       <c r="B316" s="14" t="s">
         <v>21</v>
       </c>
@@ -15171,9 +14667,7 @@
       <c r="N316" s="3"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A317" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A317" s="13"/>
       <c r="B317" s="14" t="s">
         <v>22</v>
       </c>
@@ -15215,9 +14709,7 @@
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A318" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A318" s="13"/>
       <c r="B318" s="14" t="s">
         <v>22</v>
       </c>
@@ -15259,9 +14751,7 @@
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A319" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A319" s="13"/>
       <c r="B319" s="14" t="s">
         <v>22</v>
       </c>
@@ -15303,9 +14793,7 @@
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A320" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A320" s="13"/>
       <c r="B320" s="14" t="s">
         <v>22</v>
       </c>
@@ -15347,9 +14835,7 @@
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A321" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A321" s="13"/>
       <c r="B321" s="14" t="s">
         <v>22</v>
       </c>
@@ -15391,9 +14877,7 @@
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A322" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A322" s="13"/>
       <c r="B322" s="14" t="s">
         <v>22</v>
       </c>
@@ -15435,9 +14919,7 @@
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A323" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A323" s="13"/>
       <c r="B323" s="14" t="s">
         <v>22</v>
       </c>
@@ -15479,9 +14961,7 @@
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A324" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A324" s="13"/>
       <c r="B324" s="14" t="s">
         <v>22</v>
       </c>
@@ -15523,9 +15003,7 @@
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A325" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A325" s="13"/>
       <c r="B325" s="14" t="s">
         <v>22</v>
       </c>
@@ -15567,9 +15045,7 @@
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A326" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A326" s="13"/>
       <c r="B326" s="14" t="s">
         <v>22</v>
       </c>
@@ -15611,9 +15087,7 @@
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A327" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A327" s="13"/>
       <c r="B327" s="14" t="s">
         <v>22</v>
       </c>
@@ -15655,9 +15129,7 @@
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A328" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A328" s="13"/>
       <c r="B328" s="14" t="s">
         <v>22</v>
       </c>
@@ -15699,9 +15171,7 @@
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A329" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A329" s="13"/>
       <c r="B329" s="14" t="s">
         <v>22</v>
       </c>
@@ -15743,9 +15213,7 @@
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A330" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A330" s="13"/>
       <c r="B330" s="14" t="s">
         <v>22</v>
       </c>
@@ -15787,9 +15255,7 @@
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A331" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A331" s="13"/>
       <c r="B331" s="14" t="s">
         <v>22</v>
       </c>
@@ -15831,9 +15297,7 @@
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A332" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A332" s="13"/>
       <c r="B332" s="14" t="s">
         <v>22</v>
       </c>
@@ -15875,9 +15339,7 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A333" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A333" s="13"/>
       <c r="B333" s="14" t="s">
         <v>22</v>
       </c>
@@ -15919,9 +15381,7 @@
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A334" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A334" s="13"/>
       <c r="B334" s="14" t="s">
         <v>22</v>
       </c>
@@ -15963,9 +15423,7 @@
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A335" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A335" s="13"/>
       <c r="B335" s="14" t="s">
         <v>22</v>
       </c>
@@ -16007,9 +15465,7 @@
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A336" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A336" s="13"/>
       <c r="B336" s="14" t="s">
         <v>22</v>
       </c>
@@ -16051,9 +15507,7 @@
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A337" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A337" s="13"/>
       <c r="B337" s="14" t="s">
         <v>22</v>
       </c>
@@ -16095,9 +15549,7 @@
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A338" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A338" s="13"/>
       <c r="B338" s="14" t="s">
         <v>22</v>
       </c>
@@ -16139,9 +15591,7 @@
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A339" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A339" s="13"/>
       <c r="B339" s="14" t="s">
         <v>22</v>
       </c>
@@ -16183,9 +15633,7 @@
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A340" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A340" s="13"/>
       <c r="B340" s="14" t="s">
         <v>22</v>
       </c>
@@ -16225,9 +15673,7 @@
       <c r="N340" s="3"/>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A341" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A341" s="13"/>
       <c r="B341" s="14" t="s">
         <v>22</v>
       </c>
@@ -16267,9 +15713,7 @@
       <c r="N341" s="3"/>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A342" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A342" s="13"/>
       <c r="B342" s="14" t="s">
         <v>22</v>
       </c>
@@ -16309,9 +15753,7 @@
       <c r="N342" s="3"/>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A343" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A343" s="13"/>
       <c r="B343" s="14" t="s">
         <v>23</v>
       </c>
@@ -16353,9 +15795,7 @@
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A344" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A344" s="13"/>
       <c r="B344" s="14" t="s">
         <v>23</v>
       </c>
@@ -16397,9 +15837,7 @@
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A345" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A345" s="13"/>
       <c r="B345" s="14" t="s">
         <v>23</v>
       </c>
@@ -16441,9 +15879,7 @@
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A346" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A346" s="13"/>
       <c r="B346" s="14" t="s">
         <v>23</v>
       </c>
@@ -16485,9 +15921,7 @@
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A347" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A347" s="13"/>
       <c r="B347" s="14" t="s">
         <v>23</v>
       </c>
@@ -16529,9 +15963,7 @@
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A348" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A348" s="13"/>
       <c r="B348" s="14" t="s">
         <v>23</v>
       </c>
@@ -16573,9 +16005,7 @@
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A349" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A349" s="13"/>
       <c r="B349" s="14" t="s">
         <v>23</v>
       </c>
@@ -16617,9 +16047,7 @@
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A350" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A350" s="13"/>
       <c r="B350" s="14" t="s">
         <v>23</v>
       </c>
@@ -16661,9 +16089,7 @@
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A351" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A351" s="13"/>
       <c r="B351" s="14" t="s">
         <v>23</v>
       </c>
@@ -16705,9 +16131,7 @@
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A352" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A352" s="13"/>
       <c r="B352" s="14" t="s">
         <v>23</v>
       </c>
@@ -16749,9 +16173,7 @@
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A353" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A353" s="13"/>
       <c r="B353" s="14" t="s">
         <v>23</v>
       </c>
@@ -16793,9 +16215,7 @@
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A354" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A354" s="13"/>
       <c r="B354" s="14" t="s">
         <v>23</v>
       </c>
@@ -16837,9 +16257,7 @@
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A355" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A355" s="13"/>
       <c r="B355" s="14" t="s">
         <v>23</v>
       </c>
@@ -16881,9 +16299,7 @@
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A356" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A356" s="13"/>
       <c r="B356" s="14" t="s">
         <v>23</v>
       </c>
@@ -16925,9 +16341,7 @@
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A357" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A357" s="13"/>
       <c r="B357" s="14" t="s">
         <v>23</v>
       </c>
@@ -16969,9 +16383,7 @@
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A358" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A358" s="13"/>
       <c r="B358" s="14" t="s">
         <v>23</v>
       </c>
@@ -17013,9 +16425,7 @@
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A359" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A359" s="13"/>
       <c r="B359" s="14" t="s">
         <v>23</v>
       </c>
@@ -17057,9 +16467,7 @@
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A360" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A360" s="13"/>
       <c r="B360" s="14" t="s">
         <v>23</v>
       </c>
@@ -17101,9 +16509,7 @@
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A361" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A361" s="13"/>
       <c r="B361" s="14" t="s">
         <v>23</v>
       </c>
@@ -17145,9 +16551,7 @@
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A362" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A362" s="13"/>
       <c r="B362" s="14" t="s">
         <v>23</v>
       </c>
@@ -17189,9 +16593,7 @@
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A363" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A363" s="13"/>
       <c r="B363" s="14" t="s">
         <v>23</v>
       </c>
@@ -17233,9 +16635,7 @@
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A364" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A364" s="13"/>
       <c r="B364" s="14" t="s">
         <v>23</v>
       </c>
@@ -17277,9 +16677,7 @@
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A365" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A365" s="13"/>
       <c r="B365" s="14" t="s">
         <v>23</v>
       </c>
@@ -17321,9 +16719,7 @@
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A366" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A366" s="13"/>
       <c r="B366" s="14" t="s">
         <v>23</v>
       </c>
@@ -17363,9 +16759,7 @@
       <c r="N366" s="3"/>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A367" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A367" s="13"/>
       <c r="B367" s="14" t="s">
         <v>23</v>
       </c>
@@ -17405,9 +16799,7 @@
       <c r="N367" s="3"/>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A368" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A368" s="13"/>
       <c r="B368" s="14" t="s">
         <v>23</v>
       </c>
@@ -17447,9 +16839,7 @@
       <c r="N368" s="3"/>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A369" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A369" s="13"/>
       <c r="B369" s="14" t="s">
         <v>24</v>
       </c>
@@ -17491,9 +16881,7 @@
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A370" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A370" s="13"/>
       <c r="B370" s="14" t="s">
         <v>24</v>
       </c>
@@ -17535,9 +16923,7 @@
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A371" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A371" s="13"/>
       <c r="B371" s="14" t="s">
         <v>24</v>
       </c>
@@ -17579,9 +16965,7 @@
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A372" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A372" s="13"/>
       <c r="B372" s="14" t="s">
         <v>24</v>
       </c>
@@ -17623,9 +17007,7 @@
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A373" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A373" s="13"/>
       <c r="B373" s="14" t="s">
         <v>24</v>
       </c>
@@ -17667,9 +17049,7 @@
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A374" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A374" s="13"/>
       <c r="B374" s="14" t="s">
         <v>24</v>
       </c>
@@ -17711,9 +17091,7 @@
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A375" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A375" s="13"/>
       <c r="B375" s="14" t="s">
         <v>24</v>
       </c>
@@ -17755,9 +17133,7 @@
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A376" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A376" s="13"/>
       <c r="B376" s="14" t="s">
         <v>24</v>
       </c>
@@ -17799,9 +17175,7 @@
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A377" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A377" s="13"/>
       <c r="B377" s="14" t="s">
         <v>24</v>
       </c>
@@ -17843,9 +17217,7 @@
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A378" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A378" s="13"/>
       <c r="B378" s="14" t="s">
         <v>24</v>
       </c>
@@ -17887,9 +17259,7 @@
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A379" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A379" s="13"/>
       <c r="B379" s="14" t="s">
         <v>24</v>
       </c>
@@ -17931,9 +17301,7 @@
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A380" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A380" s="13"/>
       <c r="B380" s="14" t="s">
         <v>24</v>
       </c>
@@ -17975,9 +17343,7 @@
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A381" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A381" s="13"/>
       <c r="B381" s="14" t="s">
         <v>24</v>
       </c>
@@ -18019,9 +17385,7 @@
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A382" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A382" s="13"/>
       <c r="B382" s="14" t="s">
         <v>24</v>
       </c>
@@ -18063,9 +17427,7 @@
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A383" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A383" s="13"/>
       <c r="B383" s="14" t="s">
         <v>24</v>
       </c>
@@ -18107,9 +17469,7 @@
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A384" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A384" s="13"/>
       <c r="B384" s="14" t="s">
         <v>24</v>
       </c>
@@ -18151,9 +17511,7 @@
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A385" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A385" s="13"/>
       <c r="B385" s="14" t="s">
         <v>24</v>
       </c>
@@ -18195,9 +17553,7 @@
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A386" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A386" s="13"/>
       <c r="B386" s="14" t="s">
         <v>24</v>
       </c>
@@ -18239,9 +17595,7 @@
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A387" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A387" s="13"/>
       <c r="B387" s="14" t="s">
         <v>24</v>
       </c>
@@ -18283,9 +17637,7 @@
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A388" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A388" s="13"/>
       <c r="B388" s="14" t="s">
         <v>24</v>
       </c>
@@ -18327,9 +17679,7 @@
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A389" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A389" s="13"/>
       <c r="B389" s="14" t="s">
         <v>24</v>
       </c>
@@ -18371,9 +17721,7 @@
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A390" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A390" s="13"/>
       <c r="B390" s="14" t="s">
         <v>24</v>
       </c>
@@ -18415,9 +17763,7 @@
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A391" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A391" s="13"/>
       <c r="B391" s="14" t="s">
         <v>24</v>
       </c>
@@ -18459,9 +17805,7 @@
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A392" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A392" s="13"/>
       <c r="B392" s="14" t="s">
         <v>24</v>
       </c>
@@ -18501,9 +17845,7 @@
       <c r="N392" s="3"/>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A393" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A393" s="13"/>
       <c r="B393" s="14" t="s">
         <v>24</v>
       </c>
@@ -18543,9 +17885,7 @@
       <c r="N393" s="3"/>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A394" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A394" s="13"/>
       <c r="B394" s="14" t="s">
         <v>24</v>
       </c>
@@ -18585,9 +17925,7 @@
       <c r="N394" s="3"/>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A395" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A395" s="13"/>
       <c r="B395" s="14" t="s">
         <v>25</v>
       </c>
@@ -18629,9 +17967,7 @@
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A396" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A396" s="13"/>
       <c r="B396" s="14" t="s">
         <v>25</v>
       </c>
@@ -18673,9 +18009,7 @@
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A397" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A397" s="13"/>
       <c r="B397" s="14" t="s">
         <v>25</v>
       </c>
@@ -18717,9 +18051,7 @@
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A398" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A398" s="13"/>
       <c r="B398" s="14" t="s">
         <v>25</v>
       </c>
@@ -18761,9 +18093,7 @@
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A399" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A399" s="13"/>
       <c r="B399" s="14" t="s">
         <v>25</v>
       </c>
@@ -18805,9 +18135,7 @@
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A400" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A400" s="13"/>
       <c r="B400" s="14" t="s">
         <v>25</v>
       </c>
@@ -18849,9 +18177,7 @@
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A401" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A401" s="13"/>
       <c r="B401" s="14" t="s">
         <v>25</v>
       </c>
@@ -18893,9 +18219,7 @@
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A402" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A402" s="13"/>
       <c r="B402" s="14" t="s">
         <v>25</v>
       </c>
@@ -18937,9 +18261,7 @@
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A403" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A403" s="13"/>
       <c r="B403" s="14" t="s">
         <v>25</v>
       </c>
@@ -18981,9 +18303,7 @@
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A404" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A404" s="13"/>
       <c r="B404" s="14" t="s">
         <v>25</v>
       </c>
@@ -19025,9 +18345,7 @@
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A405" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A405" s="13"/>
       <c r="B405" s="14" t="s">
         <v>25</v>
       </c>
@@ -19069,9 +18387,7 @@
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A406" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A406" s="13"/>
       <c r="B406" s="14" t="s">
         <v>25</v>
       </c>
@@ -19113,9 +18429,7 @@
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A407" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A407" s="13"/>
       <c r="B407" s="14" t="s">
         <v>25</v>
       </c>
@@ -19157,9 +18471,7 @@
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A408" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A408" s="13"/>
       <c r="B408" s="14" t="s">
         <v>25</v>
       </c>
@@ -19201,9 +18513,7 @@
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A409" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A409" s="13"/>
       <c r="B409" s="14" t="s">
         <v>25</v>
       </c>
@@ -19245,9 +18555,7 @@
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A410" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A410" s="13"/>
       <c r="B410" s="14" t="s">
         <v>25</v>
       </c>
@@ -19289,9 +18597,7 @@
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A411" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A411" s="13"/>
       <c r="B411" s="14" t="s">
         <v>25</v>
       </c>
@@ -19333,9 +18639,7 @@
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A412" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A412" s="13"/>
       <c r="B412" s="14" t="s">
         <v>25</v>
       </c>
@@ -19377,9 +18681,7 @@
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A413" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A413" s="13"/>
       <c r="B413" s="14" t="s">
         <v>25</v>
       </c>
@@ -19421,9 +18723,7 @@
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A414" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A414" s="13"/>
       <c r="B414" s="14" t="s">
         <v>25</v>
       </c>
@@ -19465,9 +18765,7 @@
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A415" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A415" s="13"/>
       <c r="B415" s="14" t="s">
         <v>25</v>
       </c>
@@ -19509,9 +18807,7 @@
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A416" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A416" s="13"/>
       <c r="B416" s="14" t="s">
         <v>25</v>
       </c>
@@ -19553,9 +18849,7 @@
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A417" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A417" s="13"/>
       <c r="B417" s="14" t="s">
         <v>25</v>
       </c>
@@ -19597,9 +18891,7 @@
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A418" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A418" s="13"/>
       <c r="B418" s="14" t="s">
         <v>25</v>
       </c>
@@ -19639,9 +18931,7 @@
       <c r="N418" s="3"/>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A419" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A419" s="13"/>
       <c r="B419" s="14" t="s">
         <v>25</v>
       </c>
@@ -19681,9 +18971,7 @@
       <c r="N419" s="3"/>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A420" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A420" s="13"/>
       <c r="B420" s="14" t="s">
         <v>25</v>
       </c>
@@ -19723,9 +19011,7 @@
       <c r="N420" s="3"/>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A421" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A421" s="13"/>
       <c r="B421" s="14" t="s">
         <v>26</v>
       </c>
@@ -19767,9 +19053,7 @@
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A422" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A422" s="13"/>
       <c r="B422" s="14" t="s">
         <v>26</v>
       </c>
@@ -19811,9 +19095,7 @@
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A423" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A423" s="13"/>
       <c r="B423" s="14" t="s">
         <v>26</v>
       </c>
@@ -19855,9 +19137,7 @@
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A424" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A424" s="13"/>
       <c r="B424" s="14" t="s">
         <v>26</v>
       </c>
@@ -19899,9 +19179,7 @@
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A425" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A425" s="13"/>
       <c r="B425" s="14" t="s">
         <v>26</v>
       </c>
@@ -19943,9 +19221,7 @@
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A426" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A426" s="13"/>
       <c r="B426" s="14" t="s">
         <v>26</v>
       </c>
@@ -19987,9 +19263,7 @@
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A427" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A427" s="13"/>
       <c r="B427" s="14" t="s">
         <v>26</v>
       </c>
@@ -20031,9 +19305,7 @@
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A428" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A428" s="13"/>
       <c r="B428" s="14" t="s">
         <v>26</v>
       </c>
@@ -20075,9 +19347,7 @@
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A429" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A429" s="13"/>
       <c r="B429" s="14" t="s">
         <v>26</v>
       </c>
@@ -20119,9 +19389,7 @@
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A430" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A430" s="13"/>
       <c r="B430" s="14" t="s">
         <v>26</v>
       </c>
@@ -20163,9 +19431,7 @@
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A431" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A431" s="13"/>
       <c r="B431" s="14" t="s">
         <v>26</v>
       </c>
@@ -20207,9 +19473,7 @@
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A432" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A432" s="13"/>
       <c r="B432" s="14" t="s">
         <v>26</v>
       </c>
@@ -20251,9 +19515,7 @@
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A433" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A433" s="13"/>
       <c r="B433" s="14" t="s">
         <v>26</v>
       </c>
@@ -20295,9 +19557,7 @@
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A434" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A434" s="13"/>
       <c r="B434" s="14" t="s">
         <v>26</v>
       </c>
@@ -20339,9 +19599,7 @@
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A435" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A435" s="13"/>
       <c r="B435" s="14" t="s">
         <v>26</v>
       </c>
@@ -20383,9 +19641,7 @@
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A436" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A436" s="13"/>
       <c r="B436" s="14" t="s">
         <v>26</v>
       </c>
@@ -20427,9 +19683,7 @@
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A437" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A437" s="13"/>
       <c r="B437" s="14" t="s">
         <v>26</v>
       </c>
@@ -20471,9 +19725,7 @@
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A438" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A438" s="13"/>
       <c r="B438" s="14" t="s">
         <v>26</v>
       </c>
@@ -20515,9 +19767,7 @@
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A439" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A439" s="13"/>
       <c r="B439" s="14" t="s">
         <v>26</v>
       </c>
@@ -20559,9 +19809,7 @@
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A440" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A440" s="13"/>
       <c r="B440" s="14" t="s">
         <v>26</v>
       </c>
@@ -20603,9 +19851,7 @@
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A441" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A441" s="13"/>
       <c r="B441" s="14" t="s">
         <v>26</v>
       </c>
@@ -20647,9 +19893,7 @@
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A442" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A442" s="13"/>
       <c r="B442" s="14" t="s">
         <v>26</v>
       </c>
@@ -20691,9 +19935,7 @@
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A443" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A443" s="13"/>
       <c r="B443" s="14" t="s">
         <v>26</v>
       </c>
@@ -20735,9 +19977,7 @@
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A444" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A444" s="13"/>
       <c r="B444" s="14" t="s">
         <v>26</v>
       </c>
@@ -20777,9 +20017,7 @@
       <c r="N444" s="3"/>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A445" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A445" s="13"/>
       <c r="B445" s="14" t="s">
         <v>26</v>
       </c>
@@ -20819,9 +20057,7 @@
       <c r="N445" s="3"/>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A446" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A446" s="13"/>
       <c r="B446" s="14" t="s">
         <v>26</v>
       </c>
@@ -20861,9 +20097,7 @@
       <c r="N446" s="3"/>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A447" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A447" s="13"/>
       <c r="B447" s="14" t="s">
         <v>27</v>
       </c>
@@ -20905,9 +20139,7 @@
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A448" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A448" s="13"/>
       <c r="B448" s="14" t="s">
         <v>27</v>
       </c>
@@ -20949,9 +20181,7 @@
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A449" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A449" s="13"/>
       <c r="B449" s="14" t="s">
         <v>27</v>
       </c>
@@ -20993,9 +20223,7 @@
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A450" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A450" s="13"/>
       <c r="B450" s="14" t="s">
         <v>27</v>
       </c>
@@ -21037,9 +20265,7 @@
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A451" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A451" s="13"/>
       <c r="B451" s="14" t="s">
         <v>27</v>
       </c>
@@ -21081,9 +20307,7 @@
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A452" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A452" s="13"/>
       <c r="B452" s="14" t="s">
         <v>27</v>
       </c>
@@ -21125,9 +20349,7 @@
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A453" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A453" s="13"/>
       <c r="B453" s="14" t="s">
         <v>27</v>
       </c>
@@ -21169,9 +20391,7 @@
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A454" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A454" s="13"/>
       <c r="B454" s="14" t="s">
         <v>27</v>
       </c>
@@ -21213,9 +20433,7 @@
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A455" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A455" s="13"/>
       <c r="B455" s="14" t="s">
         <v>27</v>
       </c>
@@ -21257,9 +20475,7 @@
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A456" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A456" s="13"/>
       <c r="B456" s="14" t="s">
         <v>27</v>
       </c>
@@ -21301,9 +20517,7 @@
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A457" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A457" s="13"/>
       <c r="B457" s="14" t="s">
         <v>27</v>
       </c>
@@ -21345,9 +20559,7 @@
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A458" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A458" s="13"/>
       <c r="B458" s="14" t="s">
         <v>27</v>
       </c>
@@ -21389,9 +20601,7 @@
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A459" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A459" s="13"/>
       <c r="B459" s="14" t="s">
         <v>27</v>
       </c>
@@ -21433,9 +20643,7 @@
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A460" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A460" s="13"/>
       <c r="B460" s="14" t="s">
         <v>27</v>
       </c>
@@ -21477,9 +20685,7 @@
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A461" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A461" s="13"/>
       <c r="B461" s="14" t="s">
         <v>27</v>
       </c>
@@ -21521,9 +20727,7 @@
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A462" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A462" s="13"/>
       <c r="B462" s="14" t="s">
         <v>27</v>
       </c>
@@ -21565,9 +20769,7 @@
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A463" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A463" s="13"/>
       <c r="B463" s="14" t="s">
         <v>27</v>
       </c>
@@ -21609,9 +20811,7 @@
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A464" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A464" s="13"/>
       <c r="B464" s="14" t="s">
         <v>27</v>
       </c>
@@ -21653,9 +20853,7 @@
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A465" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A465" s="13"/>
       <c r="B465" s="14" t="s">
         <v>27</v>
       </c>
@@ -21697,9 +20895,7 @@
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A466" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A466" s="13"/>
       <c r="B466" s="14" t="s">
         <v>27</v>
       </c>
@@ -21741,9 +20937,7 @@
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A467" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A467" s="13"/>
       <c r="B467" s="14" t="s">
         <v>27</v>
       </c>
@@ -21785,9 +20979,7 @@
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A468" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A468" s="13"/>
       <c r="B468" s="14" t="s">
         <v>27</v>
       </c>
@@ -21829,9 +21021,7 @@
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A469" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A469" s="13"/>
       <c r="B469" s="14" t="s">
         <v>27</v>
       </c>
@@ -21873,9 +21063,7 @@
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A470" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A470" s="13"/>
       <c r="B470" s="14" t="s">
         <v>27</v>
       </c>
@@ -21915,9 +21103,7 @@
       <c r="N470" s="3"/>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A471" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A471" s="13"/>
       <c r="B471" s="14" t="s">
         <v>27</v>
       </c>
@@ -21957,9 +21143,7 @@
       <c r="N471" s="3"/>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A472" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A472" s="13"/>
       <c r="B472" s="14" t="s">
         <v>27</v>
       </c>
@@ -21999,9 +21183,7 @@
       <c r="N472" s="3"/>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A473" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A473" s="13"/>
       <c r="B473" s="14" t="s">
         <v>28</v>
       </c>
@@ -22043,9 +21225,7 @@
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A474" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A474" s="13"/>
       <c r="B474" s="14" t="s">
         <v>28</v>
       </c>
@@ -22087,9 +21267,7 @@
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A475" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A475" s="13"/>
       <c r="B475" s="14" t="s">
         <v>28</v>
       </c>
@@ -22131,9 +21309,7 @@
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A476" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A476" s="13"/>
       <c r="B476" s="14" t="s">
         <v>28</v>
       </c>
@@ -22175,9 +21351,7 @@
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A477" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A477" s="13"/>
       <c r="B477" s="14" t="s">
         <v>28</v>
       </c>
@@ -22219,9 +21393,7 @@
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A478" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A478" s="13"/>
       <c r="B478" s="14" t="s">
         <v>28</v>
       </c>
@@ -22263,9 +21435,7 @@
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A479" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A479" s="13"/>
       <c r="B479" s="14" t="s">
         <v>28</v>
       </c>
@@ -22307,9 +21477,7 @@
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A480" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A480" s="13"/>
       <c r="B480" s="14" t="s">
         <v>28</v>
       </c>
@@ -22351,9 +21519,7 @@
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A481" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A481" s="13"/>
       <c r="B481" s="14" t="s">
         <v>28</v>
       </c>
@@ -22395,9 +21561,7 @@
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A482" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A482" s="13"/>
       <c r="B482" s="14" t="s">
         <v>28</v>
       </c>
@@ -22439,9 +21603,7 @@
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A483" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A483" s="13"/>
       <c r="B483" s="14" t="s">
         <v>28</v>
       </c>
@@ -22483,9 +21645,7 @@
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A484" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A484" s="13"/>
       <c r="B484" s="14" t="s">
         <v>28</v>
       </c>
@@ -22527,9 +21687,7 @@
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A485" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A485" s="13"/>
       <c r="B485" s="14" t="s">
         <v>28</v>
       </c>
@@ -22571,9 +21729,7 @@
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A486" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A486" s="13"/>
       <c r="B486" s="14" t="s">
         <v>28</v>
       </c>
@@ -22615,9 +21771,7 @@
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A487" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A487" s="13"/>
       <c r="B487" s="14" t="s">
         <v>28</v>
       </c>
@@ -22659,9 +21813,7 @@
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A488" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A488" s="13"/>
       <c r="B488" s="14" t="s">
         <v>28</v>
       </c>
@@ -22703,9 +21855,7 @@
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A489" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A489" s="13"/>
       <c r="B489" s="14" t="s">
         <v>28</v>
       </c>
@@ -22747,9 +21897,7 @@
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A490" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A490" s="13"/>
       <c r="B490" s="14" t="s">
         <v>28</v>
       </c>
@@ -22791,9 +21939,7 @@
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A491" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A491" s="13"/>
       <c r="B491" s="14" t="s">
         <v>28</v>
       </c>
@@ -22835,9 +21981,7 @@
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A492" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A492" s="13"/>
       <c r="B492" s="14" t="s">
         <v>28</v>
       </c>
@@ -22879,9 +22023,7 @@
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A493" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A493" s="13"/>
       <c r="B493" s="14" t="s">
         <v>28</v>
       </c>
@@ -22923,9 +22065,7 @@
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A494" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A494" s="13"/>
       <c r="B494" s="14" t="s">
         <v>28</v>
       </c>
@@ -22967,9 +22107,7 @@
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A495" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A495" s="13"/>
       <c r="B495" s="14" t="s">
         <v>28</v>
       </c>
@@ -23011,9 +22149,7 @@
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A496" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A496" s="13"/>
       <c r="B496" s="14" t="s">
         <v>28</v>
       </c>
@@ -23053,9 +22189,7 @@
       <c r="N496" s="3"/>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A497" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A497" s="13"/>
       <c r="B497" s="14" t="s">
         <v>28</v>
       </c>
@@ -23095,9 +22229,7 @@
       <c r="N497" s="3"/>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A498" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A498" s="13"/>
       <c r="B498" s="14" t="s">
         <v>28</v>
       </c>
@@ -23137,11 +22269,9 @@
       <c r="N498" s="3"/>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A499" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A499" s="13"/>
       <c r="B499" s="14" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>8</v>
@@ -23181,9 +22311,7 @@
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A500" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A500" s="13"/>
       <c r="B500" s="14" t="s">
         <v>29</v>
       </c>
@@ -23225,9 +22353,7 @@
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A501" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A501" s="13"/>
       <c r="B501" s="14" t="s">
         <v>29</v>
       </c>
@@ -23269,9 +22395,7 @@
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A502" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A502" s="13"/>
       <c r="B502" s="14" t="s">
         <v>29</v>
       </c>
@@ -23313,9 +22437,7 @@
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A503" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A503" s="13"/>
       <c r="B503" s="14" t="s">
         <v>29</v>
       </c>
@@ -23357,9 +22479,7 @@
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A504" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A504" s="13"/>
       <c r="B504" s="14" t="s">
         <v>29</v>
       </c>
@@ -23401,9 +22521,7 @@
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A505" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A505" s="13"/>
       <c r="B505" s="14" t="s">
         <v>29</v>
       </c>
@@ -23445,9 +22563,7 @@
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A506" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A506" s="13"/>
       <c r="B506" s="14" t="s">
         <v>29</v>
       </c>
@@ -23489,9 +22605,7 @@
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A507" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A507" s="13"/>
       <c r="B507" s="14" t="s">
         <v>29</v>
       </c>
@@ -23533,9 +22647,7 @@
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A508" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A508" s="13"/>
       <c r="B508" s="14" t="s">
         <v>29</v>
       </c>
@@ -23577,9 +22689,7 @@
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A509" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A509" s="13"/>
       <c r="B509" s="14" t="s">
         <v>29</v>
       </c>
@@ -23621,9 +22731,7 @@
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A510" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A510" s="13"/>
       <c r="B510" s="14" t="s">
         <v>29</v>
       </c>
@@ -23665,9 +22773,7 @@
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A511" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A511" s="13"/>
       <c r="B511" s="14" t="s">
         <v>29</v>
       </c>
@@ -23709,9 +22815,7 @@
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A512" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A512" s="13"/>
       <c r="B512" s="14" t="s">
         <v>29</v>
       </c>
@@ -23753,9 +22857,7 @@
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A513" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A513" s="13"/>
       <c r="B513" s="14" t="s">
         <v>29</v>
       </c>
@@ -23797,9 +22899,7 @@
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A514" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A514" s="13"/>
       <c r="B514" s="14" t="s">
         <v>29</v>
       </c>
@@ -23841,9 +22941,7 @@
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A515" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A515" s="13"/>
       <c r="B515" s="14" t="s">
         <v>29</v>
       </c>
@@ -23885,9 +22983,7 @@
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A516" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A516" s="13"/>
       <c r="B516" s="14" t="s">
         <v>29</v>
       </c>
@@ -23929,9 +23025,7 @@
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A517" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A517" s="13"/>
       <c r="B517" s="14" t="s">
         <v>29</v>
       </c>
@@ -23973,9 +23067,7 @@
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A518" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A518" s="13"/>
       <c r="B518" s="14" t="s">
         <v>29</v>
       </c>
@@ -24017,9 +23109,7 @@
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A519" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A519" s="13"/>
       <c r="B519" s="14" t="s">
         <v>29</v>
       </c>
@@ -24061,9 +23151,7 @@
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A520" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A520" s="13"/>
       <c r="B520" s="14" t="s">
         <v>29</v>
       </c>
@@ -24105,9 +23193,7 @@
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A521" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A521" s="13"/>
       <c r="B521" s="14" t="s">
         <v>29</v>
       </c>
@@ -24149,9 +23235,7 @@
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A522" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A522" s="13"/>
       <c r="B522" s="14" t="s">
         <v>29</v>
       </c>
@@ -24191,9 +23275,7 @@
       <c r="N522" s="3"/>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A523" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A523" s="13"/>
       <c r="B523" s="14" t="s">
         <v>29</v>
       </c>
@@ -24233,9 +23315,7 @@
       <c r="N523" s="3"/>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A524" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A524" s="13"/>
       <c r="B524" s="14" t="s">
         <v>29</v>
       </c>
@@ -24275,9 +23355,7 @@
       <c r="N524" s="3"/>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A525" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A525" s="13"/>
       <c r="B525" s="14" t="s">
         <v>30</v>
       </c>
@@ -24319,9 +23397,7 @@
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A526" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A526" s="13"/>
       <c r="B526" s="14" t="s">
         <v>30</v>
       </c>
@@ -24363,9 +23439,7 @@
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A527" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A527" s="13"/>
       <c r="B527" s="14" t="s">
         <v>30</v>
       </c>
@@ -24407,9 +23481,7 @@
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A528" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A528" s="13"/>
       <c r="B528" s="14" t="s">
         <v>30</v>
       </c>
@@ -24451,9 +23523,7 @@
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A529" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A529" s="13"/>
       <c r="B529" s="14" t="s">
         <v>30</v>
       </c>
@@ -24495,9 +23565,7 @@
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A530" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A530" s="13"/>
       <c r="B530" s="14" t="s">
         <v>30</v>
       </c>
@@ -24539,9 +23607,7 @@
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A531" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A531" s="13"/>
       <c r="B531" s="14" t="s">
         <v>30</v>
       </c>
@@ -24583,9 +23649,7 @@
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A532" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A532" s="13"/>
       <c r="B532" s="14" t="s">
         <v>30</v>
       </c>
@@ -24627,9 +23691,7 @@
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A533" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A533" s="13"/>
       <c r="B533" s="14" t="s">
         <v>30</v>
       </c>
@@ -24671,9 +23733,7 @@
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A534" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A534" s="13"/>
       <c r="B534" s="14" t="s">
         <v>30</v>
       </c>
@@ -24715,9 +23775,7 @@
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A535" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A535" s="13"/>
       <c r="B535" s="14" t="s">
         <v>30</v>
       </c>
@@ -24759,9 +23817,7 @@
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A536" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A536" s="13"/>
       <c r="B536" s="14" t="s">
         <v>30</v>
       </c>
@@ -24803,9 +23859,7 @@
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A537" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A537" s="13"/>
       <c r="B537" s="14" t="s">
         <v>30</v>
       </c>
@@ -24847,9 +23901,7 @@
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A538" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A538" s="13"/>
       <c r="B538" s="14" t="s">
         <v>30</v>
       </c>
@@ -24891,9 +23943,7 @@
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A539" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A539" s="13"/>
       <c r="B539" s="14" t="s">
         <v>30</v>
       </c>
@@ -24935,9 +23985,7 @@
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A540" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A540" s="13"/>
       <c r="B540" s="14" t="s">
         <v>30</v>
       </c>
@@ -24979,9 +24027,7 @@
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A541" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A541" s="13"/>
       <c r="B541" s="14" t="s">
         <v>30</v>
       </c>
@@ -25023,9 +24069,7 @@
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A542" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A542" s="13"/>
       <c r="B542" s="14" t="s">
         <v>30</v>
       </c>
@@ -25067,9 +24111,7 @@
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A543" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A543" s="13"/>
       <c r="B543" s="14" t="s">
         <v>30</v>
       </c>
@@ -25111,9 +24153,7 @@
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A544" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A544" s="13"/>
       <c r="B544" s="14" t="s">
         <v>30</v>
       </c>
@@ -25155,9 +24195,7 @@
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A545" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A545" s="13"/>
       <c r="B545" s="14" t="s">
         <v>30</v>
       </c>
@@ -25199,9 +24237,7 @@
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A546" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A546" s="13"/>
       <c r="B546" s="14" t="s">
         <v>30</v>
       </c>
@@ -25243,9 +24279,7 @@
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A547" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A547" s="13"/>
       <c r="B547" s="14" t="s">
         <v>30</v>
       </c>
@@ -25287,9 +24321,7 @@
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A548" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A548" s="13"/>
       <c r="B548" s="14" t="s">
         <v>30</v>
       </c>
@@ -25329,9 +24361,7 @@
       <c r="N548" s="3"/>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A549" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A549" s="13"/>
       <c r="B549" s="14" t="s">
         <v>30</v>
       </c>
@@ -25371,9 +24401,7 @@
       <c r="N549" s="3"/>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A550" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A550" s="13"/>
       <c r="B550" s="14" t="s">
         <v>30</v>
       </c>
@@ -25413,9 +24441,7 @@
       <c r="N550" s="3"/>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A551" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A551" s="13"/>
       <c r="B551" s="14" t="s">
         <v>31</v>
       </c>
@@ -25457,9 +24483,7 @@
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A552" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A552" s="13"/>
       <c r="B552" s="14" t="s">
         <v>31</v>
       </c>
@@ -25501,9 +24525,7 @@
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A553" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A553" s="13"/>
       <c r="B553" s="14" t="s">
         <v>31</v>
       </c>
@@ -25545,9 +24567,7 @@
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A554" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A554" s="13"/>
       <c r="B554" s="14" t="s">
         <v>31</v>
       </c>
@@ -25589,9 +24609,7 @@
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A555" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A555" s="13"/>
       <c r="B555" s="14" t="s">
         <v>31</v>
       </c>
@@ -25633,9 +24651,7 @@
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A556" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A556" s="13"/>
       <c r="B556" s="14" t="s">
         <v>31</v>
       </c>
@@ -25677,9 +24693,7 @@
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A557" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A557" s="13"/>
       <c r="B557" s="14" t="s">
         <v>31</v>
       </c>
@@ -25721,9 +24735,7 @@
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A558" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A558" s="13"/>
       <c r="B558" s="14" t="s">
         <v>31</v>
       </c>
@@ -25765,9 +24777,7 @@
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A559" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A559" s="13"/>
       <c r="B559" s="14" t="s">
         <v>31</v>
       </c>
@@ -25809,9 +24819,7 @@
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A560" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A560" s="13"/>
       <c r="B560" s="14" t="s">
         <v>31</v>
       </c>
@@ -25853,9 +24861,7 @@
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A561" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A561" s="13"/>
       <c r="B561" s="14" t="s">
         <v>31</v>
       </c>
@@ -25897,9 +24903,7 @@
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A562" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A562" s="13"/>
       <c r="B562" s="14" t="s">
         <v>31</v>
       </c>
@@ -25941,9 +24945,7 @@
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A563" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A563" s="13"/>
       <c r="B563" s="14" t="s">
         <v>31</v>
       </c>
@@ -25985,9 +24987,7 @@
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A564" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A564" s="13"/>
       <c r="B564" s="14" t="s">
         <v>31</v>
       </c>
@@ -26029,9 +25029,7 @@
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A565" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A565" s="13"/>
       <c r="B565" s="14" t="s">
         <v>31</v>
       </c>
@@ -26073,9 +25071,7 @@
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A566" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A566" s="13"/>
       <c r="B566" s="14" t="s">
         <v>31</v>
       </c>
@@ -26117,9 +25113,7 @@
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A567" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A567" s="13"/>
       <c r="B567" s="14" t="s">
         <v>31</v>
       </c>
@@ -26161,9 +25155,7 @@
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A568" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A568" s="13"/>
       <c r="B568" s="14" t="s">
         <v>31</v>
       </c>
@@ -26205,9 +25197,7 @@
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A569" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A569" s="13"/>
       <c r="B569" s="14" t="s">
         <v>31</v>
       </c>
@@ -26249,9 +25239,7 @@
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A570" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A570" s="13"/>
       <c r="B570" s="14" t="s">
         <v>31</v>
       </c>
@@ -26293,9 +25281,7 @@
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A571" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A571" s="13"/>
       <c r="B571" s="14" t="s">
         <v>31</v>
       </c>
@@ -26337,9 +25323,7 @@
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A572" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A572" s="13"/>
       <c r="B572" s="14" t="s">
         <v>31</v>
       </c>
@@ -26381,9 +25365,7 @@
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A573" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A573" s="13"/>
       <c r="B573" s="14" t="s">
         <v>31</v>
       </c>
@@ -26425,9 +25407,7 @@
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A574" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A574" s="13"/>
       <c r="B574" s="14" t="s">
         <v>31</v>
       </c>
@@ -26467,9 +25447,7 @@
       <c r="N574" s="3"/>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A575" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A575" s="13"/>
       <c r="B575" s="14" t="s">
         <v>31</v>
       </c>
@@ -26509,9 +25487,7 @@
       <c r="N575" s="3"/>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A576" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A576" s="13"/>
       <c r="B576" s="14" t="s">
         <v>31</v>
       </c>
@@ -26551,9 +25527,7 @@
       <c r="N576" s="3"/>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A577" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A577" s="13"/>
       <c r="B577" s="14" t="s">
         <v>32</v>
       </c>
@@ -26595,9 +25569,7 @@
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A578" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A578" s="13"/>
       <c r="B578" s="14" t="s">
         <v>32</v>
       </c>
@@ -26639,9 +25611,7 @@
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A579" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A579" s="13"/>
       <c r="B579" s="14" t="s">
         <v>32</v>
       </c>
@@ -26683,9 +25653,7 @@
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A580" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A580" s="13"/>
       <c r="B580" s="14" t="s">
         <v>32</v>
       </c>
@@ -26727,9 +25695,7 @@
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A581" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A581" s="13"/>
       <c r="B581" s="14" t="s">
         <v>32</v>
       </c>
@@ -26771,9 +25737,7 @@
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A582" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A582" s="13"/>
       <c r="B582" s="14" t="s">
         <v>32</v>
       </c>
@@ -26815,9 +25779,7 @@
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A583" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A583" s="13"/>
       <c r="B583" s="14" t="s">
         <v>32</v>
       </c>
@@ -26859,9 +25821,7 @@
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A584" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A584" s="13"/>
       <c r="B584" s="14" t="s">
         <v>32</v>
       </c>
@@ -26903,9 +25863,7 @@
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A585" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A585" s="13"/>
       <c r="B585" s="14" t="s">
         <v>32</v>
       </c>
@@ -26947,9 +25905,7 @@
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A586" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A586" s="13"/>
       <c r="B586" s="14" t="s">
         <v>32</v>
       </c>
@@ -26991,9 +25947,7 @@
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A587" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A587" s="13"/>
       <c r="B587" s="14" t="s">
         <v>32</v>
       </c>
@@ -27035,9 +25989,7 @@
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A588" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A588" s="13"/>
       <c r="B588" s="14" t="s">
         <v>32</v>
       </c>
@@ -27079,9 +26031,7 @@
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A589" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A589" s="13"/>
       <c r="B589" s="14" t="s">
         <v>32</v>
       </c>
@@ -27123,9 +26073,7 @@
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A590" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A590" s="13"/>
       <c r="B590" s="14" t="s">
         <v>32</v>
       </c>
@@ -27167,9 +26115,7 @@
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A591" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A591" s="13"/>
       <c r="B591" s="14" t="s">
         <v>32</v>
       </c>
@@ -27211,9 +26157,7 @@
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A592" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A592" s="13"/>
       <c r="B592" s="14" t="s">
         <v>32</v>
       </c>
@@ -27255,9 +26199,7 @@
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A593" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A593" s="13"/>
       <c r="B593" s="14" t="s">
         <v>32</v>
       </c>
@@ -27299,9 +26241,7 @@
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A594" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A594" s="13"/>
       <c r="B594" s="14" t="s">
         <v>32</v>
       </c>
@@ -27343,9 +26283,7 @@
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A595" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A595" s="13"/>
       <c r="B595" s="14" t="s">
         <v>32</v>
       </c>
@@ -27387,9 +26325,7 @@
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A596" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A596" s="13"/>
       <c r="B596" s="14" t="s">
         <v>32</v>
       </c>
@@ -27431,9 +26367,7 @@
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A597" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A597" s="13"/>
       <c r="B597" s="14" t="s">
         <v>32</v>
       </c>
@@ -27475,9 +26409,7 @@
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A598" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A598" s="13"/>
       <c r="B598" s="14" t="s">
         <v>32</v>
       </c>
@@ -27519,9 +26451,7 @@
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A599" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A599" s="13"/>
       <c r="B599" s="14" t="s">
         <v>32</v>
       </c>
@@ -27563,9 +26493,7 @@
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A600" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A600" s="13"/>
       <c r="B600" s="14" t="s">
         <v>32</v>
       </c>
@@ -27605,9 +26533,7 @@
       <c r="N600" s="3"/>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A601" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A601" s="13"/>
       <c r="B601" s="14" t="s">
         <v>32</v>
       </c>
@@ -27647,9 +26573,7 @@
       <c r="N601" s="3"/>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A602" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A602" s="13"/>
       <c r="B602" s="14" t="s">
         <v>32</v>
       </c>
@@ -27689,9 +26613,7 @@
       <c r="N602" s="3"/>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A603" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A603" s="13"/>
       <c r="B603" s="14" t="s">
         <v>33</v>
       </c>
@@ -27733,9 +26655,7 @@
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A604" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A604" s="13"/>
       <c r="B604" s="14" t="s">
         <v>33</v>
       </c>
@@ -27777,9 +26697,7 @@
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A605" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A605" s="13"/>
       <c r="B605" s="14" t="s">
         <v>33</v>
       </c>
@@ -27821,9 +26739,7 @@
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A606" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A606" s="13"/>
       <c r="B606" s="14" t="s">
         <v>33</v>
       </c>
@@ -27865,9 +26781,7 @@
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A607" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A607" s="13"/>
       <c r="B607" s="14" t="s">
         <v>33</v>
       </c>
@@ -27909,9 +26823,7 @@
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A608" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A608" s="13"/>
       <c r="B608" s="14" t="s">
         <v>33</v>
       </c>
@@ -27953,9 +26865,7 @@
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A609" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A609" s="13"/>
       <c r="B609" s="14" t="s">
         <v>33</v>
       </c>
@@ -27997,9 +26907,7 @@
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A610" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A610" s="13"/>
       <c r="B610" s="14" t="s">
         <v>33</v>
       </c>
@@ -28041,9 +26949,7 @@
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A611" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A611" s="13"/>
       <c r="B611" s="14" t="s">
         <v>33</v>
       </c>
@@ -28085,9 +26991,7 @@
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A612" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A612" s="13"/>
       <c r="B612" s="14" t="s">
         <v>33</v>
       </c>
@@ -28129,9 +27033,7 @@
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A613" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A613" s="13"/>
       <c r="B613" s="14" t="s">
         <v>33</v>
       </c>
@@ -28173,9 +27075,7 @@
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A614" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A614" s="13"/>
       <c r="B614" s="14" t="s">
         <v>33</v>
       </c>
@@ -28217,9 +27117,7 @@
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A615" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A615" s="13"/>
       <c r="B615" s="14" t="s">
         <v>33</v>
       </c>
@@ -28261,9 +27159,7 @@
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A616" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A616" s="13"/>
       <c r="B616" s="14" t="s">
         <v>33</v>
       </c>
@@ -28305,9 +27201,7 @@
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A617" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A617" s="13"/>
       <c r="B617" s="14" t="s">
         <v>33</v>
       </c>
@@ -28349,9 +27243,7 @@
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A618" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A618" s="13"/>
       <c r="B618" s="14" t="s">
         <v>33</v>
       </c>
@@ -28393,9 +27285,7 @@
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A619" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A619" s="13"/>
       <c r="B619" s="14" t="s">
         <v>33</v>
       </c>
@@ -28437,9 +27327,7 @@
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A620" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A620" s="13"/>
       <c r="B620" s="14" t="s">
         <v>33</v>
       </c>
@@ -28481,9 +27369,7 @@
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A621" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A621" s="13"/>
       <c r="B621" s="14" t="s">
         <v>33</v>
       </c>
@@ -28525,9 +27411,7 @@
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A622" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A622" s="13"/>
       <c r="B622" s="14" t="s">
         <v>33</v>
       </c>
@@ -28569,9 +27453,7 @@
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A623" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A623" s="13"/>
       <c r="B623" s="14" t="s">
         <v>33</v>
       </c>
@@ -28613,9 +27495,7 @@
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A624" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A624" s="13"/>
       <c r="B624" s="14" t="s">
         <v>33</v>
       </c>
@@ -28657,9 +27537,7 @@
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A625" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A625" s="13"/>
       <c r="B625" s="14" t="s">
         <v>33</v>
       </c>
@@ -28701,9 +27579,7 @@
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A626" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A626" s="13"/>
       <c r="B626" s="14" t="s">
         <v>33</v>
       </c>
@@ -28743,9 +27619,7 @@
       <c r="N626" s="3"/>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A627" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A627" s="13"/>
       <c r="B627" s="14" t="s">
         <v>33</v>
       </c>
@@ -28785,9 +27659,7 @@
       <c r="N627" s="3"/>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A628" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A628" s="13"/>
       <c r="B628" s="14" t="s">
         <v>33</v>
       </c>
@@ -28827,9 +27699,7 @@
       <c r="N628" s="3"/>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A629" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A629" s="13"/>
       <c r="B629" s="14" t="s">
         <v>34</v>
       </c>
@@ -28871,9 +27741,7 @@
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A630" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A630" s="13"/>
       <c r="B630" s="14" t="s">
         <v>34</v>
       </c>
@@ -28915,9 +27783,7 @@
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A631" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A631" s="13"/>
       <c r="B631" s="14" t="s">
         <v>34</v>
       </c>
@@ -28959,9 +27825,7 @@
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A632" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A632" s="13"/>
       <c r="B632" s="14" t="s">
         <v>34</v>
       </c>
@@ -29003,9 +27867,7 @@
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A633" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A633" s="13"/>
       <c r="B633" s="14" t="s">
         <v>34</v>
       </c>
@@ -29047,9 +27909,7 @@
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A634" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A634" s="13"/>
       <c r="B634" s="14" t="s">
         <v>34</v>
       </c>
@@ -29091,9 +27951,7 @@
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A635" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A635" s="13"/>
       <c r="B635" s="14" t="s">
         <v>34</v>
       </c>
@@ -29135,9 +27993,7 @@
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A636" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A636" s="13"/>
       <c r="B636" s="14" t="s">
         <v>34</v>
       </c>
@@ -29179,9 +28035,7 @@
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A637" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A637" s="13"/>
       <c r="B637" s="14" t="s">
         <v>34</v>
       </c>
@@ -29223,9 +28077,7 @@
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A638" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A638" s="13"/>
       <c r="B638" s="14" t="s">
         <v>34</v>
       </c>
@@ -29267,9 +28119,7 @@
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A639" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A639" s="13"/>
       <c r="B639" s="14" t="s">
         <v>34</v>
       </c>
@@ -29311,9 +28161,7 @@
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A640" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A640" s="13"/>
       <c r="B640" s="14" t="s">
         <v>34</v>
       </c>
@@ -29355,9 +28203,7 @@
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A641" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A641" s="13"/>
       <c r="B641" s="14" t="s">
         <v>34</v>
       </c>
@@ -29399,9 +28245,7 @@
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A642" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A642" s="13"/>
       <c r="B642" s="14" t="s">
         <v>34</v>
       </c>
@@ -29443,9 +28287,7 @@
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A643" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A643" s="13"/>
       <c r="B643" s="14" t="s">
         <v>34</v>
       </c>
@@ -29487,9 +28329,7 @@
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A644" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A644" s="13"/>
       <c r="B644" s="14" t="s">
         <v>34</v>
       </c>
@@ -29531,9 +28371,7 @@
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A645" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A645" s="13"/>
       <c r="B645" s="14" t="s">
         <v>34</v>
       </c>
@@ -29575,9 +28413,7 @@
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A646" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A646" s="13"/>
       <c r="B646" s="14" t="s">
         <v>34</v>
       </c>
@@ -29619,9 +28455,7 @@
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A647" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A647" s="13"/>
       <c r="B647" s="14" t="s">
         <v>34</v>
       </c>
@@ -29663,9 +28497,7 @@
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A648" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A648" s="13"/>
       <c r="B648" s="14" t="s">
         <v>34</v>
       </c>
@@ -29707,9 +28539,7 @@
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A649" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A649" s="13"/>
       <c r="B649" s="14" t="s">
         <v>34</v>
       </c>
@@ -29751,9 +28581,7 @@
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A650" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A650" s="13"/>
       <c r="B650" s="14" t="s">
         <v>34</v>
       </c>
@@ -29795,9 +28623,7 @@
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A651" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A651" s="13"/>
       <c r="B651" s="14" t="s">
         <v>34</v>
       </c>
@@ -29839,9 +28665,7 @@
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A652" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A652" s="13"/>
       <c r="B652" s="14" t="s">
         <v>34</v>
       </c>
@@ -29881,9 +28705,7 @@
       <c r="N652" s="3"/>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A653" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A653" s="13"/>
       <c r="B653" s="14" t="s">
         <v>34</v>
       </c>
@@ -29923,9 +28745,7 @@
       <c r="N653" s="3"/>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A654" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A654" s="13"/>
       <c r="B654" s="14" t="s">
         <v>34</v>
       </c>
@@ -29965,9 +28785,7 @@
       <c r="N654" s="3"/>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A655" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A655" s="13"/>
       <c r="B655" s="14" t="s">
         <v>35</v>
       </c>
@@ -30009,9 +28827,7 @@
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A656" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A656" s="13"/>
       <c r="B656" s="14" t="s">
         <v>35</v>
       </c>
@@ -30053,9 +28869,7 @@
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A657" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A657" s="13"/>
       <c r="B657" s="14" t="s">
         <v>35</v>
       </c>
@@ -30097,9 +28911,7 @@
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A658" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A658" s="13"/>
       <c r="B658" s="14" t="s">
         <v>35</v>
       </c>
@@ -30141,9 +28953,7 @@
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A659" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A659" s="13"/>
       <c r="B659" s="14" t="s">
         <v>35</v>
       </c>
@@ -30185,9 +28995,7 @@
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A660" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A660" s="13"/>
       <c r="B660" s="14" t="s">
         <v>35</v>
       </c>
@@ -30229,9 +29037,7 @@
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A661" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A661" s="13"/>
       <c r="B661" s="14" t="s">
         <v>35</v>
       </c>
@@ -30273,9 +29079,7 @@
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A662" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A662" s="13"/>
       <c r="B662" s="14" t="s">
         <v>35</v>
       </c>
@@ -30317,9 +29121,7 @@
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A663" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A663" s="13"/>
       <c r="B663" s="14" t="s">
         <v>35</v>
       </c>
@@ -30361,9 +29163,7 @@
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A664" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A664" s="13"/>
       <c r="B664" s="14" t="s">
         <v>35</v>
       </c>
@@ -30405,9 +29205,7 @@
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A665" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A665" s="13"/>
       <c r="B665" s="14" t="s">
         <v>35</v>
       </c>
@@ -30449,9 +29247,7 @@
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A666" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A666" s="13"/>
       <c r="B666" s="14" t="s">
         <v>35</v>
       </c>
@@ -30493,9 +29289,7 @@
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A667" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A667" s="13"/>
       <c r="B667" s="14" t="s">
         <v>35</v>
       </c>
@@ -30537,9 +29331,7 @@
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A668" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A668" s="13"/>
       <c r="B668" s="14" t="s">
         <v>35</v>
       </c>
@@ -30581,9 +29373,7 @@
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A669" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A669" s="13"/>
       <c r="B669" s="14" t="s">
         <v>35</v>
       </c>
@@ -30625,9 +29415,7 @@
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A670" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A670" s="13"/>
       <c r="B670" s="14" t="s">
         <v>35</v>
       </c>
@@ -30669,9 +29457,7 @@
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A671" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A671" s="13"/>
       <c r="B671" s="14" t="s">
         <v>35</v>
       </c>
@@ -30713,9 +29499,7 @@
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A672" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A672" s="13"/>
       <c r="B672" s="14" t="s">
         <v>35</v>
       </c>
@@ -30757,9 +29541,7 @@
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A673" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A673" s="13"/>
       <c r="B673" s="14" t="s">
         <v>35</v>
       </c>
@@ -30801,9 +29583,7 @@
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A674" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A674" s="13"/>
       <c r="B674" s="14" t="s">
         <v>35</v>
       </c>
@@ -30845,9 +29625,7 @@
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A675" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A675" s="13"/>
       <c r="B675" s="14" t="s">
         <v>35</v>
       </c>
@@ -30889,9 +29667,7 @@
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A676" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A676" s="13"/>
       <c r="B676" s="14" t="s">
         <v>35</v>
       </c>
@@ -30933,9 +29709,7 @@
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A677" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A677" s="13"/>
       <c r="B677" s="14" t="s">
         <v>35</v>
       </c>
@@ -30977,9 +29751,7 @@
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A678" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A678" s="13"/>
       <c r="B678" s="14" t="s">
         <v>35</v>
       </c>
@@ -31019,9 +29791,7 @@
       <c r="N678" s="3"/>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A679" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A679" s="13"/>
       <c r="B679" s="14" t="s">
         <v>35</v>
       </c>
@@ -31061,9 +29831,7 @@
       <c r="N679" s="3"/>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A680" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A680" s="13"/>
       <c r="B680" s="14" t="s">
         <v>35</v>
       </c>
@@ -31103,9 +29871,7 @@
       <c r="N680" s="3"/>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A681" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A681" s="13"/>
       <c r="B681" s="14" t="s">
         <v>36</v>
       </c>
@@ -31147,9 +29913,7 @@
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A682" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A682" s="13"/>
       <c r="B682" s="14" t="s">
         <v>36</v>
       </c>
@@ -31191,9 +29955,7 @@
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A683" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A683" s="13"/>
       <c r="B683" s="14" t="s">
         <v>36</v>
       </c>
@@ -31235,9 +29997,7 @@
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A684" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A684" s="13"/>
       <c r="B684" s="14" t="s">
         <v>36</v>
       </c>
@@ -31279,9 +30039,7 @@
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A685" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A685" s="13"/>
       <c r="B685" s="14" t="s">
         <v>36</v>
       </c>
@@ -31323,9 +30081,7 @@
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A686" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A686" s="13"/>
       <c r="B686" s="14" t="s">
         <v>36</v>
       </c>
@@ -31367,9 +30123,7 @@
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A687" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A687" s="13"/>
       <c r="B687" s="14" t="s">
         <v>36</v>
       </c>
@@ -31411,9 +30165,7 @@
       </c>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A688" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A688" s="13"/>
       <c r="B688" s="14" t="s">
         <v>36</v>
       </c>
@@ -31455,9 +30207,7 @@
       </c>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A689" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A689" s="13"/>
       <c r="B689" s="14" t="s">
         <v>36</v>
       </c>
@@ -31499,9 +30249,7 @@
       </c>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A690" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A690" s="13"/>
       <c r="B690" s="14" t="s">
         <v>36</v>
       </c>
@@ -31543,9 +30291,7 @@
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A691" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A691" s="13"/>
       <c r="B691" s="14" t="s">
         <v>36</v>
       </c>
@@ -31587,9 +30333,7 @@
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A692" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A692" s="13"/>
       <c r="B692" s="14" t="s">
         <v>36</v>
       </c>
@@ -31631,9 +30375,7 @@
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A693" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A693" s="13"/>
       <c r="B693" s="14" t="s">
         <v>36</v>
       </c>
@@ -31675,9 +30417,7 @@
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A694" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A694" s="13"/>
       <c r="B694" s="14" t="s">
         <v>36</v>
       </c>
@@ -31719,9 +30459,7 @@
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A695" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A695" s="13"/>
       <c r="B695" s="14" t="s">
         <v>36</v>
       </c>
@@ -31763,9 +30501,7 @@
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A696" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A696" s="13"/>
       <c r="B696" s="14" t="s">
         <v>36</v>
       </c>
@@ -31807,9 +30543,7 @@
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A697" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A697" s="13"/>
       <c r="B697" s="14" t="s">
         <v>36</v>
       </c>
@@ -31851,9 +30585,7 @@
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A698" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A698" s="13"/>
       <c r="B698" s="14" t="s">
         <v>36</v>
       </c>
@@ -31895,9 +30627,7 @@
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A699" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A699" s="13"/>
       <c r="B699" s="14" t="s">
         <v>36</v>
       </c>
@@ -31939,9 +30669,7 @@
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A700" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A700" s="13"/>
       <c r="B700" s="14" t="s">
         <v>36</v>
       </c>
@@ -31983,9 +30711,7 @@
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A701" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A701" s="13"/>
       <c r="B701" s="14" t="s">
         <v>36</v>
       </c>
@@ -32027,9 +30753,7 @@
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A702" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A702" s="13"/>
       <c r="B702" s="14" t="s">
         <v>36</v>
       </c>
@@ -32071,9 +30795,7 @@
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A703" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A703" s="13"/>
       <c r="B703" s="14" t="s">
         <v>36</v>
       </c>
@@ -32115,9 +30837,7 @@
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A704" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A704" s="13"/>
       <c r="B704" s="14" t="s">
         <v>36</v>
       </c>
@@ -32157,9 +30877,7 @@
       <c r="N704" s="3"/>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A705" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A705" s="13"/>
       <c r="B705" s="14" t="s">
         <v>36</v>
       </c>
@@ -32199,9 +30917,7 @@
       <c r="N705" s="3"/>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A706" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A706" s="13"/>
       <c r="B706" s="14" t="s">
         <v>36</v>
       </c>
@@ -32241,9 +30957,7 @@
       <c r="N706" s="3"/>
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A707" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A707" s="13"/>
       <c r="B707" s="14" t="s">
         <v>37</v>
       </c>
@@ -32285,9 +30999,7 @@
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A708" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A708" s="13"/>
       <c r="B708" s="14" t="s">
         <v>37</v>
       </c>
@@ -32329,9 +31041,7 @@
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A709" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A709" s="13"/>
       <c r="B709" s="14" t="s">
         <v>37</v>
       </c>
@@ -32373,9 +31083,7 @@
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A710" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A710" s="13"/>
       <c r="B710" s="14" t="s">
         <v>37</v>
       </c>
@@ -32417,9 +31125,7 @@
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A711" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A711" s="13"/>
       <c r="B711" s="14" t="s">
         <v>37</v>
       </c>
@@ -32461,9 +31167,7 @@
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A712" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A712" s="13"/>
       <c r="B712" s="14" t="s">
         <v>37</v>
       </c>
@@ -32505,9 +31209,7 @@
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A713" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A713" s="13"/>
       <c r="B713" s="14" t="s">
         <v>37</v>
       </c>
@@ -32549,9 +31251,7 @@
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A714" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A714" s="13"/>
       <c r="B714" s="14" t="s">
         <v>37</v>
       </c>
@@ -32593,9 +31293,7 @@
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A715" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A715" s="13"/>
       <c r="B715" s="14" t="s">
         <v>37</v>
       </c>
@@ -32637,9 +31335,7 @@
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A716" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A716" s="13"/>
       <c r="B716" s="14" t="s">
         <v>37</v>
       </c>
@@ -32681,9 +31377,7 @@
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A717" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A717" s="13"/>
       <c r="B717" s="14" t="s">
         <v>37</v>
       </c>
@@ -32725,9 +31419,7 @@
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A718" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A718" s="13"/>
       <c r="B718" s="14" t="s">
         <v>37</v>
       </c>
@@ -32769,9 +31461,7 @@
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A719" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A719" s="13"/>
       <c r="B719" s="14" t="s">
         <v>37</v>
       </c>
@@ -32813,9 +31503,7 @@
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A720" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A720" s="13"/>
       <c r="B720" s="14" t="s">
         <v>37</v>
       </c>
@@ -32857,9 +31545,7 @@
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A721" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A721" s="13"/>
       <c r="B721" s="14" t="s">
         <v>37</v>
       </c>
@@ -32901,9 +31587,7 @@
       </c>
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A722" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A722" s="13"/>
       <c r="B722" s="14" t="s">
         <v>37</v>
       </c>
@@ -32945,9 +31629,7 @@
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A723" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A723" s="13"/>
       <c r="B723" s="14" t="s">
         <v>37</v>
       </c>
@@ -32989,9 +31671,7 @@
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A724" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A724" s="13"/>
       <c r="B724" s="14" t="s">
         <v>37</v>
       </c>
@@ -33033,9 +31713,7 @@
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A725" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A725" s="13"/>
       <c r="B725" s="14" t="s">
         <v>37</v>
       </c>
@@ -33077,9 +31755,7 @@
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A726" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A726" s="13"/>
       <c r="B726" s="14" t="s">
         <v>37</v>
       </c>
@@ -33121,9 +31797,7 @@
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A727" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A727" s="13"/>
       <c r="B727" s="14" t="s">
         <v>37</v>
       </c>
@@ -33165,9 +31839,7 @@
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A728" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A728" s="13"/>
       <c r="B728" s="14" t="s">
         <v>37</v>
       </c>
@@ -33209,9 +31881,7 @@
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A729" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A729" s="13"/>
       <c r="B729" s="14" t="s">
         <v>37</v>
       </c>
@@ -33253,9 +31923,7 @@
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A730" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A730" s="13"/>
       <c r="B730" s="14" t="s">
         <v>37</v>
       </c>
@@ -33295,9 +31963,7 @@
       <c r="N730" s="3"/>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A731" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A731" s="13"/>
       <c r="B731" s="14" t="s">
         <v>37</v>
       </c>
@@ -33337,9 +32003,7 @@
       <c r="N731" s="3"/>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A732" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A732" s="13"/>
       <c r="B732" s="14" t="s">
         <v>37</v>
       </c>
@@ -81179,7 +79843,7 @@
         <v>5</v>
       </c>
       <c r="B1825" s="14" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C1825" s="7" t="s">
         <v>8</v>
@@ -90283,7 +88947,7 @@
         <v>5</v>
       </c>
       <c r="B2033" s="14" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C2033" s="7" t="s">
         <v>8</v>
